--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SPR_model_naming_verification.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SPR_model_naming_verification.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="127">
   <si>
     <t>Steps</t>
   </si>
@@ -367,16 +367,47 @@
   </si>
   <si>
     <t>Verification One column and One row naming</t>
+  </si>
+  <si>
+    <t>MyRow*</t>
+  </si>
+  <si>
+    <t>UserData*</t>
+  </si>
+  <si>
+    <t>someListik*</t>
+  </si>
+  <si>
+    <t>Calculation*</t>
+  </si>
+  <si>
+    <t>Step1*</t>
+  </si>
+  <si>
+    <t>Step2*</t>
+  </si>
+  <si>
+    <t>anycell*</t>
+  </si>
+  <si>
+    <t>Row1*</t>
+  </si>
+  <si>
+    <t>Row2*</t>
+  </si>
+  <si>
+    <t>_res_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="1" rgb="000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -398,19 +429,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.79998168889431442" rgb="9BBB59"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2" rgb="FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.14999847407452621" rgb="FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,7 +452,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -490,12 +521,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -544,10 +593,29 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="true" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="true" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="true" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="true" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="true" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="true" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Linked Cell" xfId="1" builtinId="24"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -882,15 +950,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1009,21 +1077,21 @@
         <v>0</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="I14" s="26" t="s">
         <v>46</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>29</v>
@@ -1046,7 +1114,7 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>44</v>
@@ -1064,7 +1132,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>50</v>
@@ -1425,14 +1493,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="36.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1493,14 +1561,14 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D7" s="11"/>
       <c r="G7" s="24" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>58</v>
@@ -1511,14 +1579,14 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D8" s="11"/>
       <c r="G8" s="24" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>59</v>
@@ -1698,22 +1766,22 @@
         <v>0</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D33" s="11"/>
       <c r="F33" s="24" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="G33" s="15" t="s">
         <v>58</v>
@@ -1726,14 +1794,14 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="24" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D34" s="11"/>
       <c r="F34" s="24" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="G34" s="15" t="s">
         <v>59</v>
@@ -1927,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="D54" s="26" t="s">
         <v>79</v>
@@ -1935,7 +2003,7 @@
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="24" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>58</v>
@@ -1946,7 +2014,7 @@
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="24" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>59</v>
@@ -2083,15 +2151,15 @@
         <v>0</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="24" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>58</v>
@@ -2150,10 +2218,11 @@
         <v>111</v>
       </c>
       <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="34"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="26" t="s">
@@ -2162,7 +2231,7 @@
       <c r="C83" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D83" s="26" t="s">
+      <c r="D83" t="s" s="26">
         <v>112</v>
       </c>
       <c r="E83" s="26" t="s">
@@ -2182,7 +2251,7 @@
       <c r="C84" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D84" s="26" t="s">
+      <c r="D84" t="s" s="26">
         <v>113</v>
       </c>
       <c r="E84" s="26" t="s">
@@ -2202,11 +2271,11 @@
       <c r="C85" s="12">
         <v>1</v>
       </c>
-      <c r="D85" s="12">
-        <v>2</v>
-      </c>
-      <c r="E85" s="12">
-        <v>2</v>
+      <c r="D85" t="n" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="E85" s="12" t="n">
+        <v>2.0</v>
       </c>
       <c r="F85" s="12"/>
       <c r="G85" s="12"/>
@@ -2215,7 +2284,6 @@
   <mergeCells count="23">
     <mergeCell ref="B64:G64"/>
     <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B82:G82"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B43:I43"/>
@@ -2236,6 +2304,7 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B82:G82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SPR_model_naming_verification.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SPR_model_naming_verification.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="235">
   <si>
     <t>Steps</t>
   </si>
@@ -715,16 +715,23 @@
   </si>
   <si>
     <t>=length($Step2)</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["_"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["_"]:Integer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="1" rgb="000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -761,7 +768,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.79998168889431442" rgb="9BBB59"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,7 +780,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.14999847407452621" rgb="FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,7 +792,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.59999389629810485" rgb="9BBB59"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,8 +896,8 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -980,8 +987,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Linked Cell" xfId="1" builtinId="24"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1316,15 +1323,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1859,14 +1866,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="36.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2297,14 +2304,14 @@
       <c r="C46" s="11">
         <v>1</v>
       </c>
-      <c r="D46" s="11">
-        <v>2</v>
-      </c>
-      <c r="E46" s="11">
-        <v>3</v>
-      </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G46" s="11" t="n">
+        <v>3.0</v>
+      </c>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
     </row>
@@ -2686,12 +2693,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="44" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="47.42578125" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="44.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2775,7 +2782,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>178</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2783,7 +2790,7 @@
         <v>37</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>172</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3542,8 +3549,8 @@
       <c r="B96" s="23">
         <v>1</v>
       </c>
-      <c r="C96" s="30">
-        <v>10</v>
+      <c r="C96" s="30" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="97" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SPR_model_naming_verification.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SPR_model_naming_verification.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF26321E-1D6E-4DF8-A728-6CC111D5B5B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="27795" windowHeight="11565" tabRatio="143" activeTab="2"/>
+    <workbookView xWindow="4680" yWindow="885" windowWidth="28845" windowHeight="20115" tabRatio="143" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="233">
   <si>
     <t>Steps</t>
   </si>
@@ -411,9 +417,6 @@
     <t>Method Void someMethod()</t>
   </si>
   <si>
-    <t>System.out.println();</t>
-  </si>
-  <si>
     <t>No asterikses</t>
   </si>
   <si>
@@ -534,9 +537,6 @@
     <t>Test  emptyNameSpr_toMap emptyNameSpr_toMapTest</t>
   </si>
   <si>
-    <t>_res_.$Step2[""]</t>
-  </si>
-  <si>
     <t>Test  emptyNameSpr2_toMap emptyNameSpr2_toMapTest</t>
   </si>
   <si>
@@ -552,9 +552,6 @@
     <t>_res_.$Step2["Step3"]</t>
   </si>
   <si>
-    <t>_res_.$Step2[""]:Integer</t>
-  </si>
-  <si>
     <t>_res_.$Step2["Step1"]:Integer</t>
   </si>
   <si>
@@ -721,17 +718,19 @@
   </si>
   <si>
     <t>_res_.$Step2["_"]:Integer</t>
+  </si>
+  <si>
+    <t>if (false) System.out.println()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1" rgb="000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -768,7 +767,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442" rgb="9BBB59"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,7 +779,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621" rgb="FFFFFF"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,7 +791,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485" rgb="9BBB59"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,8 +895,8 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -957,6 +956,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -967,17 +972,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -987,8 +986,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Linked Cell" xfId="1" builtinId="24"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Связанная ячейка" xfId="1" builtinId="24"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1015,7 +1014,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1024,14 +1023,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1069,9 +1071,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1104,9 +1106,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1139,9 +1158,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1314,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1323,15 +1359,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1857,7 +1893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J85"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -1866,14 +1902,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" width="36.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="36.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1883,16 +1919,16 @@
     </row>
     <row r="3" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="G4" s="43" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="G4" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
@@ -1918,17 +1954,17 @@
       <c r="B6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="44"/>
+      <c r="D6" s="46"/>
       <c r="G6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="46" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1936,17 +1972,17 @@
       <c r="B7" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="46"/>
+      <c r="D7" s="48"/>
       <c r="G7" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="48" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1954,17 +1990,17 @@
       <c r="B8" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="46"/>
+      <c r="D8" s="48"/>
       <c r="G8" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="48" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1973,10 +2009,10 @@
       <c r="C9" s="1"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="50"/>
+      <c r="C11" s="43"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
@@ -2006,10 +2042,10 @@
       <c r="B16" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
       <c r="G16" s="42"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -2095,15 +2131,15 @@
     </row>
     <row r="28" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
       <c r="F30" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="49"/>
+      <c r="G30" s="44"/>
       <c r="H30" s="42"/>
       <c r="I30" s="3"/>
     </row>
@@ -2131,10 +2167,10 @@
       <c r="B32" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="44"/>
+      <c r="D32" s="46"/>
       <c r="F32" s="16" t="s">
         <v>0</v>
       </c>
@@ -2149,10 +2185,10 @@
       <c r="B33" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="46"/>
+      <c r="D33" s="48"/>
       <c r="F33" s="14" t="s">
         <v>112</v>
       </c>
@@ -2169,10 +2205,10 @@
       <c r="B34" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="46"/>
+      <c r="D34" s="48"/>
       <c r="F34" s="14" t="s">
         <v>113</v>
       </c>
@@ -2191,10 +2227,10 @@
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="48"/>
+      <c r="C38" s="50"/>
       <c r="F38" s="4"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -2306,11 +2342,11 @@
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
-      <c r="F46" s="11" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G46" s="11" t="n">
-        <v>3.0</v>
+      <c r="F46" s="11">
+        <v>2</v>
+      </c>
+      <c r="G46" s="11">
+        <v>3</v>
       </c>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
@@ -2655,15 +2691,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B43:I43"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H7:I7"/>
@@ -2678,27 +2705,36 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B43:I43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:L176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="47.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="40.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="44.0" collapsed="true"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="44" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2712,10 +2748,10 @@
         <v>117</v>
       </c>
       <c r="C4" s="54"/>
-      <c r="F4" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="31" t="s">
@@ -2742,7 +2778,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -2773,7 +2809,7 @@
     </row>
     <row r="10" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C10" s="54"/>
     </row>
@@ -2782,7 +2818,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2790,7 +2826,7 @@
         <v>37</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2819,7 +2855,7 @@
       </c>
       <c r="C17" s="54"/>
       <c r="F17" s="53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G17" s="54"/>
     </row>
@@ -2848,7 +2884,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -2875,25 +2911,25 @@
     </row>
     <row r="23" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
+      <c r="B24" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2901,13 +2937,13 @@
         <v>37</v>
       </c>
       <c r="C26" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="E26" s="32" t="s">
         <v>174</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="27" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2933,11 +2969,11 @@
     </row>
     <row r="32" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
       <c r="F33" s="25" t="s">
         <v>130</v>
       </c>
@@ -2953,7 +2989,7 @@
         <v>128</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>131</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -2992,10 +3028,10 @@
     <row r="39" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="C41" s="52"/>
+      <c r="B41" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="51"/>
     </row>
     <row r="42" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="31" t="s">
@@ -3010,7 +3046,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3024,37 +3060,37 @@
     <row r="45" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="52" t="s">
-        <v>200</v>
-      </c>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
+      <c r="B47" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
     </row>
     <row r="48" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C48" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="F48" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="D48" s="32" t="s">
+      <c r="G48" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="H48" s="32" t="s">
         <v>189</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="F48" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="G48" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="H48" s="32" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="49" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3062,22 +3098,22 @@
         <v>37</v>
       </c>
       <c r="C49" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="F49" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="D49" s="32" t="s">
+      <c r="G49" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="E49" s="32" t="s">
+      <c r="H49" s="32" t="s">
         <v>184</v>
-      </c>
-      <c r="F49" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="G49" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="H49" s="32" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="50" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3104,7 +3140,7 @@
     <row r="51" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3113,11 +3149,11 @@
       <c r="H56" s="5"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="B57" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -3184,10 +3220,10 @@
       <c r="H62" s="5"/>
     </row>
     <row r="63" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="52" t="s">
-        <v>193</v>
-      </c>
-      <c r="C63" s="52"/>
+      <c r="B63" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="C63" s="51"/>
     </row>
     <row r="64" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="31" t="s">
@@ -3202,7 +3238,7 @@
         <v>2</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3215,37 +3251,37 @@
     </row>
     <row r="67" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="C68" s="52"/>
-      <c r="D68" s="52"/>
-      <c r="E68" s="52"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
-      <c r="H68" s="52"/>
+      <c r="B68" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="C68" s="51"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="51"/>
+      <c r="H68" s="51"/>
     </row>
     <row r="69" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C69" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D69" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="E69" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="F69" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="D69" s="32" t="s">
+      <c r="G69" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="H69" s="32" t="s">
         <v>189</v>
-      </c>
-      <c r="E69" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="F69" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="G69" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="H69" s="32" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="70" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3253,22 +3289,22 @@
         <v>37</v>
       </c>
       <c r="C70" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D70" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="E70" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="F70" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="D70" s="32" t="s">
+      <c r="G70" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="E70" s="32" t="s">
+      <c r="H70" s="32" t="s">
         <v>184</v>
-      </c>
-      <c r="F70" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="G70" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="H70" s="32" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="71" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3305,24 +3341,24 @@
       <c r="H73" s="5"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="C74" s="51"/>
-      <c r="D74" s="51"/>
+      <c r="B74" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" s="52"/>
+      <c r="D74" s="52"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
     </row>
     <row r="75" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="C75" s="33" t="s">
+      <c r="D75" s="33" t="s">
         <v>145</v>
-      </c>
-      <c r="D75" s="33" t="s">
-        <v>146</v>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="26"/>
@@ -3334,7 +3370,7 @@
       </c>
       <c r="C76" s="24"/>
       <c r="D76" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="26"/>
@@ -3354,11 +3390,11 @@
     </row>
     <row r="78" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C78" s="24"/>
       <c r="D78" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="26"/>
@@ -3366,11 +3402,11 @@
     </row>
     <row r="79" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C79" s="24"/>
       <c r="D79" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="26"/>
@@ -3378,11 +3414,11 @@
     </row>
     <row r="80" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C80" s="24"/>
       <c r="D80" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="26"/>
@@ -3390,11 +3426,11 @@
     </row>
     <row r="81" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C81" s="24"/>
       <c r="D81" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="26"/>
@@ -3402,7 +3438,7 @@
     </row>
     <row r="82" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C82" s="24"/>
       <c r="D82" s="24" t="s">
@@ -3414,11 +3450,11 @@
     </row>
     <row r="83" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C83" s="24"/>
       <c r="D83" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="26"/>
@@ -3426,11 +3462,11 @@
     </row>
     <row r="84" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C84" s="24"/>
       <c r="D84" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="26"/>
@@ -3438,11 +3474,11 @@
     </row>
     <row r="85" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C85" s="24"/>
       <c r="D85" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F85" s="6"/>
       <c r="G85" s="26"/>
@@ -3455,10 +3491,10 @@
       <c r="H86" s="26"/>
     </row>
     <row r="87" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="C87" s="52"/>
+      <c r="B87" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="51"/>
       <c r="F87" s="6"/>
       <c r="G87" s="26"/>
       <c r="H87" s="26"/>
@@ -3479,7 +3515,7 @@
         <v>2</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="26"/>
@@ -3501,7 +3537,7 @@
         <v>121</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F91" s="6"/>
       <c r="G91" s="26"/>
@@ -3514,17 +3550,17 @@
       <c r="H92" s="26"/>
     </row>
     <row r="93" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="52" t="s">
-        <v>198</v>
-      </c>
-      <c r="C93" s="52"/>
+      <c r="B93" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="C93" s="51"/>
     </row>
     <row r="94" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D94" s="27"/>
       <c r="E94" s="27"/>
@@ -3537,7 +3573,7 @@
         <v>37</v>
       </c>
       <c r="C95" s="32" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D95" s="27"/>
       <c r="E95" s="27"/>
@@ -3549,8 +3585,8 @@
       <c r="B96" s="23">
         <v>1</v>
       </c>
-      <c r="C96" s="30" t="n">
-        <v>6.0</v>
+      <c r="C96" s="30">
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3567,25 +3603,25 @@
     </row>
     <row r="99" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="C101" s="51"/>
+      <c r="B101" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="C101" s="52"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C102" s="39" t="s">
         <v>136</v>
-      </c>
-      <c r="C102" s="39" t="s">
-        <v>137</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
@@ -3593,7 +3629,7 @@
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C103" s="24" t="s">
         <v>119</v>
@@ -3604,7 +3640,7 @@
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C104" s="24" t="s">
         <v>120</v>
@@ -3615,7 +3651,7 @@
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C105" s="24" t="s">
         <v>122</v>
@@ -3626,7 +3662,7 @@
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C106" s="24" t="s">
         <v>122</v>
@@ -3637,7 +3673,7 @@
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C107" s="24" t="s">
         <v>122</v>
@@ -3652,10 +3688,10 @@
       <c r="G108" s="5"/>
     </row>
     <row r="109" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="52" t="s">
-        <v>202</v>
-      </c>
-      <c r="C109" s="52"/>
+      <c r="B109" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="C109" s="51"/>
     </row>
     <row r="110" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B110" s="31" t="s">
@@ -3670,7 +3706,7 @@
         <v>2</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="112" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3684,33 +3720,33 @@
     <row r="113" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="114" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="115" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B115" s="52" t="s">
-        <v>204</v>
-      </c>
-      <c r="C115" s="52"/>
-      <c r="D115" s="52"/>
-      <c r="E115" s="52"/>
-      <c r="F115" s="52"/>
-      <c r="G115" s="52"/>
+      <c r="B115" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="C115" s="51"/>
+      <c r="D115" s="51"/>
+      <c r="E115" s="51"/>
+      <c r="F115" s="51"/>
+      <c r="G115" s="51"/>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B116" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D116" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="E116" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="F116" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="E116" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="F116" s="32" t="s">
-        <v>211</v>
-      </c>
       <c r="G116" s="32" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.25">
@@ -3718,19 +3754,19 @@
         <v>37</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D117" s="32" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E117" s="32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F117" s="32" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G117" s="32" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.25">
@@ -3761,28 +3797,28 @@
     <row r="120" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="121" spans="2:12" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="29" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="122" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="123" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="C123" s="51"/>
-      <c r="D123" s="51"/>
-      <c r="E123" s="51"/>
-      <c r="F123" s="51"/>
-      <c r="G123" s="51"/>
-      <c r="H123" s="51"/>
-      <c r="I123" s="51"/>
-      <c r="J123" s="51"/>
-      <c r="K123" s="51"/>
-      <c r="L123" s="51"/>
+      <c r="B123" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C123" s="52"/>
+      <c r="D123" s="52"/>
+      <c r="E123" s="52"/>
+      <c r="F123" s="52"/>
+      <c r="G123" s="52"/>
+      <c r="H123" s="52"/>
+      <c r="I123" s="52"/>
+      <c r="J123" s="52"/>
+      <c r="K123" s="52"/>
+      <c r="L123" s="52"/>
     </row>
     <row r="124" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B124" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C124" s="33" t="s">
         <v>112</v>
@@ -3791,71 +3827,71 @@
         <v>113</v>
       </c>
       <c r="E124" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F124" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G124" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H124" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="I124" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="I124" s="31" t="s">
+      <c r="J124" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="J124" s="31" t="s">
+      <c r="K124" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="K124" s="31" t="s">
+      <c r="L124" s="31" t="s">
         <v>157</v>
-      </c>
-      <c r="L124" s="31" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="125" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B125" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E125" s="24" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F125" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G125" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H125" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I125" s="24" t="s">
         <v>129</v>
       </c>
       <c r="J125" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K125" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L125" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="128" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="C128" s="52"/>
+      <c r="B128" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="C128" s="51"/>
     </row>
     <row r="129" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B129" s="31" t="s">
@@ -3870,7 +3906,7 @@
         <v>2</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="131" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3884,33 +3920,33 @@
     <row r="132" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="134" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="52" t="s">
-        <v>217</v>
-      </c>
-      <c r="C134" s="52"/>
-      <c r="D134" s="52"/>
-      <c r="E134" s="52"/>
-      <c r="F134" s="52"/>
-      <c r="G134" s="52"/>
+      <c r="B134" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C134" s="51"/>
+      <c r="D134" s="51"/>
+      <c r="E134" s="51"/>
+      <c r="F134" s="51"/>
+      <c r="G134" s="51"/>
     </row>
     <row r="135" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B135" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D135" s="32" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E135" s="32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F135" s="32" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G135" s="32" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="136" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3924,13 +3960,13 @@
         <v>67</v>
       </c>
       <c r="E136" s="32" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F136" s="32" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G136" s="32" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="137" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3957,12 +3993,12 @@
     <row r="141" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="142" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="144" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B144" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="C144" s="51"/>
-      <c r="D144" s="51"/>
-      <c r="E144" s="51"/>
+      <c r="B144" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="C144" s="52"/>
+      <c r="D144" s="52"/>
+      <c r="E144" s="52"/>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145" s="31" t="s">
@@ -3972,10 +4008,10 @@
         <v>1</v>
       </c>
       <c r="D145" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="E145" s="31" t="s">
         <v>162</v>
-      </c>
-      <c r="E145" s="31" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.25">
@@ -4027,10 +4063,10 @@
       <c r="E149" s="26"/>
     </row>
     <row r="150" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="C150" s="52"/>
+      <c r="B150" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="C150" s="51"/>
       <c r="D150" s="26"/>
       <c r="E150" s="26"/>
     </row>
@@ -4049,7 +4085,7 @@
         <v>2</v>
       </c>
       <c r="C152" s="24" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D152" s="26"/>
       <c r="E152" s="26"/>
@@ -4071,25 +4107,25 @@
       <c r="E154" s="26"/>
     </row>
     <row r="155" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="52" t="s">
-        <v>228</v>
-      </c>
-      <c r="C155" s="52"/>
-      <c r="D155" s="52"/>
-      <c r="E155" s="52"/>
+      <c r="B155" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="C155" s="51"/>
+      <c r="D155" s="51"/>
+      <c r="E155" s="51"/>
     </row>
     <row r="156" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B156" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C156" s="32" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D156" s="32" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E156" s="32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="157" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4097,13 +4133,13 @@
         <v>37</v>
       </c>
       <c r="C157" s="32" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D157" s="32" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E157" s="32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="158" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4133,12 +4169,12 @@
       <c r="E160" s="5"/>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B161" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="C161" s="51"/>
-      <c r="D161" s="51"/>
-      <c r="E161" s="51"/>
+      <c r="B161" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="C161" s="52"/>
+      <c r="D161" s="52"/>
+      <c r="E161" s="52"/>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B162" s="31" t="s">
@@ -4151,7 +4187,7 @@
         <v>128</v>
       </c>
       <c r="E162" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.25">
@@ -4184,7 +4220,7 @@
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B165" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C165" s="24" t="s">
         <v>122</v>
@@ -4197,10 +4233,10 @@
       </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B168" s="52" t="s">
-        <v>229</v>
-      </c>
-      <c r="C168" s="52"/>
+      <c r="B168" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="C168" s="51"/>
       <c r="D168" s="26"/>
       <c r="E168" s="26"/>
     </row>
@@ -4219,7 +4255,7 @@
         <v>2</v>
       </c>
       <c r="C170" s="24" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D170" s="26"/>
       <c r="E170" s="26"/>
@@ -4241,25 +4277,25 @@
       <c r="E172" s="26"/>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B173" s="52" t="s">
-        <v>231</v>
-      </c>
-      <c r="C173" s="52"/>
-      <c r="D173" s="52"/>
-      <c r="E173" s="52"/>
+      <c r="B173" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="C173" s="51"/>
+      <c r="D173" s="51"/>
+      <c r="E173" s="51"/>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B174" s="36" t="s">
         <v>37</v>
       </c>
       <c r="C174" s="37" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D174" s="37" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E174" s="37" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.25">
@@ -4267,13 +4303,13 @@
         <v>37</v>
       </c>
       <c r="C175" s="37" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D175" s="37" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E175" s="37" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.25">
@@ -4292,6 +4328,19 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B57:D57"/>
     <mergeCell ref="B168:C168"/>
     <mergeCell ref="B173:E173"/>
     <mergeCell ref="B87:C87"/>
@@ -4306,19 +4355,6 @@
     <mergeCell ref="B134:G134"/>
     <mergeCell ref="B150:C150"/>
     <mergeCell ref="B155:E155"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B57:D57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SPR_model_naming_verification.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SPR_model_naming_verification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF26321E-1D6E-4DF8-A728-6CC111D5B5B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C956D6-E55B-4665-AB71-0FFFD5947696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="885" windowWidth="28845" windowHeight="20115" tabRatio="143" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" tabRatio="143" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="245">
   <si>
     <t>Steps</t>
   </si>
@@ -721,6 +721,42 @@
   </si>
   <si>
     <t>if (false) System.out.println()</t>
+  </si>
+  <si>
+    <t>Spreadsheet SpreadsheetResult validationSprFull2(Integer someValue)</t>
+  </si>
+  <si>
+    <t>Spreadsheet SpreadsheetResult validationSprFull2_toMap(Integer a)</t>
+  </si>
+  <si>
+    <t>=validationSprFull2(a)</t>
+  </si>
+  <si>
+    <t>Test validationSprFull2_toMap  validationSprFull2_toMapTests</t>
+  </si>
+  <si>
+    <t>Step4</t>
+  </si>
+  <si>
+    <t>Step5</t>
+  </si>
+  <si>
+    <t>Step6~</t>
+  </si>
+  <si>
+    <t>Step7~</t>
+  </si>
+  <si>
+    <t>Step8~</t>
+  </si>
+  <si>
+    <t>Step9~</t>
+  </si>
+  <si>
+    <t>Step10~</t>
+  </si>
+  <si>
+    <t>Result0</t>
   </si>
 </sst>
 </file>
@@ -956,12 +992,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -972,11 +1002,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1357,27 +1393,27 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.86328125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.59765625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.265625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="32" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.86328125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.73046875" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="24" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.73046875" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" s="5" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="2:10" s="5" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" s="5" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B5" s="41" t="s">
         <v>7</v>
       </c>
@@ -1390,7 +1426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -1407,7 +1443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
@@ -1424,7 +1460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
@@ -1438,7 +1474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B9" s="11" t="s">
         <v>14</v>
       </c>
@@ -1446,7 +1482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B10" s="11" t="s">
         <v>16</v>
       </c>
@@ -1454,7 +1490,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B11" s="11" t="s">
         <v>46</v>
       </c>
@@ -1462,7 +1498,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B13" s="40" t="s">
         <v>27</v>
       </c>
@@ -1475,7 +1511,7 @@
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B14" s="16" t="s">
         <v>0</v>
       </c>
@@ -1498,7 +1534,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B15" s="14" t="s">
         <v>108</v>
       </c>
@@ -1521,7 +1557,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B16" s="14" t="s">
         <v>109</v>
       </c>
@@ -1530,7 +1566,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="16" t="s">
         <v>44</v>
       </c>
@@ -1539,7 +1575,7 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="14" t="s">
         <v>110</v>
       </c>
@@ -1548,13 +1584,13 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="G20" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="40" t="s">
         <v>78</v>
       </c>
@@ -1564,7 +1600,7 @@
       </c>
       <c r="G22" s="40"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="16" t="s">
         <v>0</v>
       </c>
@@ -1578,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="16" t="s">
         <v>2</v>
       </c>
@@ -1592,7 +1628,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="16" t="s">
         <v>5</v>
       </c>
@@ -1606,14 +1642,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" s="40" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="40"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" s="16" t="s">
         <v>19</v>
       </c>
@@ -1624,7 +1660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" s="16" t="s">
         <v>19</v>
       </c>
@@ -1635,7 +1671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B33" s="11" t="s">
         <v>31</v>
       </c>
@@ -1646,7 +1682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B36" s="40" t="s">
         <v>36</v>
       </c>
@@ -1657,7 +1693,7 @@
       <c r="G36" s="40"/>
       <c r="H36" s="40"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B37" s="16" t="s">
         <v>39</v>
       </c>
@@ -1680,7 +1716,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -1691,7 +1727,7 @@
       </c>
       <c r="H38" s="16"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B39" s="16" t="s">
         <v>39</v>
       </c>
@@ -1714,7 +1750,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B40" s="11">
         <v>1</v>
       </c>
@@ -1737,7 +1773,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B44" s="40" t="s">
         <v>81</v>
       </c>
@@ -1746,7 +1782,7 @@
       <c r="E44" s="40"/>
       <c r="F44" s="40"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B45" s="16" t="s">
         <v>37</v>
       </c>
@@ -1763,7 +1799,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B46" s="16" t="s">
         <v>38</v>
       </c>
@@ -1774,7 +1810,7 @@
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
@@ -1791,7 +1827,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B48" s="11">
         <v>1</v>
       </c>
@@ -1806,7 +1842,7 @@
       </c>
       <c r="F48" s="11"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B52" s="40" t="s">
         <v>80</v>
       </c>
@@ -1815,7 +1851,7 @@
       <c r="E52" s="40"/>
       <c r="F52" s="40"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B53" s="16" t="s">
         <v>37</v>
       </c>
@@ -1832,7 +1868,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B54" s="16" t="s">
         <v>38</v>
       </c>
@@ -1843,7 +1879,7 @@
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B55" s="16" t="s">
         <v>37</v>
       </c>
@@ -1860,7 +1896,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B56" s="11">
         <v>1</v>
       </c>
@@ -1900,37 +1936,37 @@
       <selection activeCell="B52" sqref="B52:D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.86328125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="41" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="36.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.3984375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="38.265625" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="36.3984375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.59765625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="35.86328125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.265625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="45" t="s">
+    <row r="3" spans="2:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B4" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="G4" s="45" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="G4" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="16" t="s">
         <v>57</v>
       </c>
@@ -1950,71 +1986,71 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="46"/>
+      <c r="D6" s="44"/>
       <c r="G6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="44" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="48"/>
+      <c r="D7" s="46"/>
       <c r="G7" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="46" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="48"/>
+      <c r="D8" s="46"/>
       <c r="G8" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="47" t="s">
+      <c r="H8" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="46" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="43" t="s">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B11" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="43"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="50"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12" s="16" t="s">
         <v>0</v>
       </c>
@@ -2022,7 +2058,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13" s="11" t="s">
         <v>2</v>
       </c>
@@ -2030,7 +2066,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14" s="11" t="s">
         <v>5</v>
       </c>
@@ -2038,17 +2074,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B16" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
       <c r="G16" s="42"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" s="16" t="s">
         <v>66</v>
       </c>
@@ -2068,7 +2104,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" s="16" t="s">
         <v>66</v>
       </c>
@@ -2088,7 +2124,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" s="11" t="s">
         <v>59</v>
       </c>
@@ -2104,7 +2140,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" s="11" t="s">
         <v>60</v>
       </c>
@@ -2120,30 +2156,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:9" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="25" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="2:9" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="45" t="s">
+    <row r="28" spans="2:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B30" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
       <c r="F30" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="44"/>
+      <c r="G30" s="49"/>
       <c r="H30" s="42"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B31" s="16" t="s">
         <v>57</v>
       </c>
@@ -2163,14 +2199,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B32" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="46"/>
+      <c r="D32" s="44"/>
       <c r="F32" s="16" t="s">
         <v>0</v>
       </c>
@@ -2181,14 +2217,14 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B33" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="48"/>
+      <c r="D33" s="46"/>
       <c r="F33" s="14" t="s">
         <v>112</v>
       </c>
@@ -2201,14 +2237,14 @@
       <c r="I33" s="8"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B34" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="48"/>
+      <c r="D34" s="46"/>
       <c r="F34" s="14" t="s">
         <v>113</v>
       </c>
@@ -2221,21 +2257,21 @@
       <c r="I34" s="8"/>
       <c r="J34" s="9"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="49" t="s">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B38" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="50"/>
+      <c r="C38" s="48"/>
       <c r="F38" s="4"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B39" s="16" t="s">
         <v>0</v>
       </c>
@@ -2246,7 +2282,7 @@
       <c r="G39" s="7"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B40" s="16" t="s">
         <v>2</v>
       </c>
@@ -2257,7 +2293,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B41" s="16" t="s">
         <v>5</v>
       </c>
@@ -2268,7 +2304,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B43" s="40" t="s">
         <v>75</v>
       </c>
@@ -2280,7 +2316,7 @@
       <c r="H43" s="40"/>
       <c r="I43" s="40"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B44" s="16" t="s">
         <v>66</v>
       </c>
@@ -2306,7 +2342,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B45" s="16" t="s">
         <v>66</v>
       </c>
@@ -2333,7 +2369,7 @@
       </c>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B46" s="11" t="s">
         <v>59</v>
       </c>
@@ -2351,7 +2387,7 @@
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B47" s="11" t="s">
         <v>60</v>
       </c>
@@ -2373,22 +2409,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="2:7" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="49" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="50" spans="2:7" s="5" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="52" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B52" s="40" t="s">
         <v>95</v>
       </c>
       <c r="C52" s="40"/>
       <c r="D52" s="40"/>
     </row>
-    <row r="53" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B53" s="16" t="s">
         <v>57</v>
       </c>
@@ -2399,7 +2435,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B54" s="16" t="s">
         <v>0</v>
       </c>
@@ -2410,7 +2446,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B55" s="14" t="s">
         <v>112</v>
       </c>
@@ -2421,7 +2457,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B56" s="14" t="s">
         <v>113</v>
       </c>
@@ -2432,19 +2468,19 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B57" s="20"/>
       <c r="C57" s="21"/>
       <c r="D57" s="21"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B58" s="40" t="s">
         <v>97</v>
       </c>
       <c r="C58" s="40"/>
       <c r="D58" s="19"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B59" s="16" t="s">
         <v>0</v>
       </c>
@@ -2453,7 +2489,7 @@
       </c>
       <c r="D59" s="22"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B60" s="16" t="s">
         <v>2</v>
       </c>
@@ -2462,7 +2498,7 @@
       </c>
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B61" s="16" t="s">
         <v>5</v>
       </c>
@@ -2471,7 +2507,7 @@
       </c>
       <c r="D61" s="6"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B64" s="40" t="s">
         <v>100</v>
       </c>
@@ -2481,7 +2517,7 @@
       <c r="F64" s="40"/>
       <c r="G64" s="40"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B65" s="16" t="s">
         <v>66</v>
       </c>
@@ -2501,7 +2537,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B66" s="16" t="s">
         <v>66</v>
       </c>
@@ -2521,7 +2557,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B67" s="11" t="s">
         <v>60</v>
       </c>
@@ -2537,14 +2573,14 @@
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B70" s="40" t="s">
         <v>98</v>
       </c>
       <c r="C70" s="40"/>
       <c r="D70" s="40"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B71" s="16" t="s">
         <v>57</v>
       </c>
@@ -2555,7 +2591,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B72" s="16" t="s">
         <v>0</v>
       </c>
@@ -2566,7 +2602,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B73" s="14" t="s">
         <v>112</v>
       </c>
@@ -2577,7 +2613,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B74" s="16" t="s">
         <v>5</v>
       </c>
@@ -2588,14 +2624,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B76" s="40" t="s">
         <v>99</v>
       </c>
       <c r="C76" s="40"/>
       <c r="D76" s="19"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B77" s="16" t="s">
         <v>0</v>
       </c>
@@ -2604,7 +2640,7 @@
       </c>
       <c r="D77" s="6"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B78" s="16" t="s">
         <v>2</v>
       </c>
@@ -2613,7 +2649,7 @@
       </c>
       <c r="D78" s="6"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B79" s="16" t="s">
         <v>5</v>
       </c>
@@ -2622,7 +2658,7 @@
       </c>
       <c r="D79" s="6"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B82" s="40" t="s">
         <v>102</v>
       </c>
@@ -2633,7 +2669,7 @@
       <c r="G82" s="40"/>
       <c r="H82" s="23"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B83" s="16" t="s">
         <v>66</v>
       </c>
@@ -2653,7 +2689,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B84" s="16" t="s">
         <v>66</v>
       </c>
@@ -2673,7 +2709,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B85" s="11" t="s">
         <v>60</v>
       </c>
@@ -2691,6 +2727,15 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B43:I43"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H7:I7"/>
@@ -2705,15 +2750,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B43:I43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2723,37 +2759,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:L176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="47.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="47.3984375" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="25.59765625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.73046875" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="28" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.3984375" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="44" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="53" t="s">
         <v>117</v>
       </c>
       <c r="C4" s="54"/>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="G4" s="51"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="52"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="31" t="s">
         <v>0</v>
       </c>
@@ -2767,7 +2803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="33" t="s">
         <v>118</v>
       </c>
@@ -2781,7 +2817,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="31" t="s">
         <v>5</v>
       </c>
@@ -2795,7 +2831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="31" t="s">
         <v>121</v>
       </c>
@@ -2803,17 +2839,17 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B9" s="6"/>
       <c r="C9" s="26"/>
     </row>
-    <row r="10" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B10" s="53" t="s">
         <v>170</v>
       </c>
       <c r="C10" s="54"/>
     </row>
-    <row r="11" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B11" s="31" t="s">
         <v>37</v>
       </c>
@@ -2821,7 +2857,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B12" s="31" t="s">
         <v>37</v>
       </c>
@@ -2829,7 +2865,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B13" s="23">
         <v>1</v>
       </c>
@@ -2837,19 +2873,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B14" s="6"/>
       <c r="C14" s="26"/>
     </row>
-    <row r="15" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B15" s="6"/>
       <c r="C15" s="26"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="53" t="s">
         <v>123</v>
       </c>
@@ -2859,7 +2895,7 @@
       </c>
       <c r="G17" s="54"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="31" t="s">
         <v>0</v>
       </c>
@@ -2873,7 +2909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="31" t="s">
         <v>2</v>
       </c>
@@ -2887,7 +2923,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="31" t="s">
         <v>5</v>
       </c>
@@ -2901,7 +2937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="31" t="s">
         <v>121</v>
       </c>
@@ -2909,16 +2945,16 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="51" t="s">
+    <row r="23" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-    </row>
-    <row r="25" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+    </row>
+    <row r="25" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B25" s="31" t="s">
         <v>37</v>
       </c>
@@ -2932,7 +2968,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B26" s="31" t="s">
         <v>37</v>
       </c>
@@ -2946,7 +2982,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B27" s="23">
         <v>1</v>
       </c>
@@ -2960,25 +2996,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B31" s="10" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="52" t="s">
+    <row r="32" spans="2:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B33" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
       <c r="F33" s="25" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B34" s="23" t="s">
         <v>127</v>
       </c>
@@ -2992,7 +3028,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B35" s="23" t="s">
         <v>2</v>
       </c>
@@ -3003,7 +3039,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B36" s="23" t="s">
         <v>5</v>
       </c>
@@ -3014,7 +3050,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B37" s="23" t="s">
         <v>121</v>
       </c>
@@ -3025,15 +3061,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="51" t="s">
+    <row r="39" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="40" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="41" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="C41" s="51"/>
-    </row>
-    <row r="42" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="52"/>
+    </row>
+    <row r="42" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B42" s="31" t="s">
         <v>0</v>
       </c>
@@ -3041,7 +3077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B43" s="31" t="s">
         <v>2</v>
       </c>
@@ -3049,7 +3085,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B44" s="31" t="s">
         <v>5</v>
       </c>
@@ -3057,20 +3093,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="51" t="s">
+    <row r="45" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="46" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="47" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="52" t="s">
         <v>197</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-    </row>
-    <row r="48" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+    </row>
+    <row r="48" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B48" s="31" t="s">
         <v>37</v>
       </c>
@@ -3093,7 +3129,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B49" s="31" t="s">
         <v>37</v>
       </c>
@@ -3116,7 +3152,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="50" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B50" s="23">
         <v>1</v>
       </c>
@@ -3137,28 +3173,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="55" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B55" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="52" t="s">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B57" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B58" s="31" t="s">
         <v>0</v>
       </c>
@@ -3172,7 +3208,7 @@
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B59" s="31" t="s">
         <v>2</v>
       </c>
@@ -3186,7 +3222,7 @@
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B60" s="31" t="s">
         <v>5</v>
       </c>
@@ -3200,7 +3236,7 @@
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B61" s="31" t="s">
         <v>121</v>
       </c>
@@ -3214,18 +3250,18 @@
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.45">
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="51" t="s">
+    <row r="63" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="52" t="s">
         <v>190</v>
       </c>
-      <c r="C63" s="51"/>
-    </row>
-    <row r="64" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="52"/>
+    </row>
+    <row r="64" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B64" s="31" t="s">
         <v>0</v>
       </c>
@@ -3233,7 +3269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B65" s="31" t="s">
         <v>2</v>
       </c>
@@ -3241,7 +3277,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="66" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B66" s="31" t="s">
         <v>5</v>
       </c>
@@ -3249,19 +3285,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="51" t="s">
+    <row r="67" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="68" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="51"/>
-      <c r="G68" s="51"/>
-      <c r="H68" s="51"/>
-    </row>
-    <row r="69" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="52"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
+    </row>
+    <row r="69" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B69" s="31" t="s">
         <v>37</v>
       </c>
@@ -3284,7 +3320,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="70" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B70" s="31" t="s">
         <v>37</v>
       </c>
@@ -3307,7 +3343,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="71" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B71" s="23">
         <v>1</v>
       </c>
@@ -3330,27 +3366,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.45">
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.45">
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="52" t="s">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B74" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="C74" s="52"/>
-      <c r="D74" s="52"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-    </row>
-    <row r="75" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="51"/>
+      <c r="D74" s="51"/>
+      <c r="F74" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="G74" s="51"/>
+      <c r="H74" s="51"/>
+    </row>
+    <row r="75" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B75" s="31" t="s">
         <v>143</v>
       </c>
@@ -3360,11 +3398,17 @@
       <c r="D75" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="F75" s="6"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26"/>
-    </row>
-    <row r="76" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F75" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G75" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="H75" s="33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B76" s="33" t="s">
         <v>112</v>
       </c>
@@ -3372,11 +3416,15 @@
       <c r="D76" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="F76" s="6"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26"/>
-    </row>
-    <row r="77" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F76" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B77" s="33" t="s">
         <v>113</v>
       </c>
@@ -3384,11 +3432,15 @@
       <c r="D77" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="F77" s="6"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="26"/>
-    </row>
-    <row r="78" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F77" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B78" s="33" t="s">
         <v>147</v>
       </c>
@@ -3396,11 +3448,15 @@
       <c r="D78" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="F78" s="6"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-    </row>
-    <row r="79" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F78" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B79" s="33" t="s">
         <v>149</v>
       </c>
@@ -3408,11 +3464,15 @@
       <c r="D79" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="F79" s="6"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="26"/>
-    </row>
-    <row r="80" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F79" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B80" s="33" t="s">
         <v>151</v>
       </c>
@@ -3420,11 +3480,15 @@
       <c r="D80" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="F80" s="6"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="26"/>
-    </row>
-    <row r="81" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F80" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B81" s="31" t="s">
         <v>153</v>
       </c>
@@ -3432,11 +3496,15 @@
       <c r="D81" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="F81" s="6"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
-    </row>
-    <row r="82" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F81" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B82" s="31" t="s">
         <v>154</v>
       </c>
@@ -3444,11 +3512,15 @@
       <c r="D82" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="F82" s="6"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="26"/>
-    </row>
-    <row r="83" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F82" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B83" s="31" t="s">
         <v>155</v>
       </c>
@@ -3456,11 +3528,15 @@
       <c r="D83" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="F83" s="6"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-    </row>
-    <row r="84" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F83" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B84" s="31" t="s">
         <v>156</v>
       </c>
@@ -3468,11 +3544,15 @@
       <c r="D84" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="F84" s="6"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
-    </row>
-    <row r="85" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F84" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B85" s="31" t="s">
         <v>157</v>
       </c>
@@ -3480,82 +3560,99 @@
       <c r="D85" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="F85" s="6"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="26"/>
-    </row>
-    <row r="86" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F85" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B86" s="28"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="26"/>
-    </row>
-    <row r="87" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="51" t="s">
+      <c r="F86" s="28"/>
+    </row>
+    <row r="87" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="C87" s="51"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="26"/>
-    </row>
-    <row r="88" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="52"/>
+      <c r="F87" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="G87" s="52"/>
+    </row>
+    <row r="88" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B88" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C88" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="F88" s="6"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="26"/>
-    </row>
-    <row r="89" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F88" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="G88" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B89" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C89" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="F89" s="6"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="26"/>
-    </row>
-    <row r="90" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F89" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G89" s="24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B90" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C90" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F90" s="6"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="26"/>
-    </row>
-    <row r="91" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F90" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G90" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B91" s="31" t="s">
         <v>121</v>
       </c>
       <c r="C91" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="F91" s="6"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="26"/>
-    </row>
-    <row r="92" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F91" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="G91" s="24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B92" s="28"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="26"/>
-    </row>
-    <row r="93" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="51" t="s">
+      <c r="F92" s="28"/>
+    </row>
+    <row r="93" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B93" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="C93" s="51"/>
-    </row>
-    <row r="94" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C93" s="52"/>
+      <c r="F93" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="G93" s="52"/>
+    </row>
+    <row r="94" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B94" s="31" t="s">
         <v>37</v>
       </c>
@@ -3564,11 +3661,15 @@
       </c>
       <c r="D94" s="27"/>
       <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
+      <c r="F94" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G94" s="32" t="s">
+        <v>198</v>
+      </c>
       <c r="H94" s="27"/>
     </row>
-    <row r="95" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B95" s="31" t="s">
         <v>37</v>
       </c>
@@ -3577,46 +3678,56 @@
       </c>
       <c r="D95" s="27"/>
       <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
+      <c r="F95" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G95" s="32" t="s">
+        <v>198</v>
+      </c>
       <c r="H95" s="27"/>
     </row>
-    <row r="96" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B96" s="23">
         <v>1</v>
       </c>
       <c r="C96" s="30">
         <v>6</v>
       </c>
-    </row>
-    <row r="97" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F96" s="23">
+        <v>1</v>
+      </c>
+      <c r="G96" s="30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B97" s="28"/>
       <c r="F97" s="6"/>
       <c r="G97" s="26"/>
       <c r="H97" s="26"/>
     </row>
-    <row r="98" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B98" s="28"/>
       <c r="F98" s="6"/>
       <c r="G98" s="26"/>
       <c r="H98" s="26"/>
     </row>
-    <row r="99" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B99" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="100" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="52" t="s">
+    <row r="100" spans="2:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B101" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="C101" s="52"/>
+      <c r="C101" s="51"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B102" s="38" t="s">
         <v>135</v>
       </c>
@@ -3627,7 +3738,7 @@
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B103" s="33" t="s">
         <v>137</v>
       </c>
@@ -3638,7 +3749,7 @@
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B104" s="33" t="s">
         <v>138</v>
       </c>
@@ -3649,7 +3760,7 @@
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B105" s="33" t="s">
         <v>139</v>
       </c>
@@ -3660,7 +3771,7 @@
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B106" s="33" t="s">
         <v>140</v>
       </c>
@@ -3671,7 +3782,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B107" s="33" t="s">
         <v>141</v>
       </c>
@@ -3682,18 +3793,18 @@
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.45">
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
     </row>
-    <row r="109" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="51" t="s">
+    <row r="109" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B109" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="C109" s="51"/>
-    </row>
-    <row r="110" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C109" s="52"/>
+    </row>
+    <row r="110" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B110" s="31" t="s">
         <v>0</v>
       </c>
@@ -3701,7 +3812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B111" s="31" t="s">
         <v>2</v>
       </c>
@@ -3709,7 +3820,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="112" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B112" s="31" t="s">
         <v>5</v>
       </c>
@@ -3717,19 +3828,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B115" s="51" t="s">
+    <row r="113" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="114" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B115" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="C115" s="51"/>
-      <c r="D115" s="51"/>
-      <c r="E115" s="51"/>
-      <c r="F115" s="51"/>
-      <c r="G115" s="51"/>
-    </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C115" s="52"/>
+      <c r="D115" s="52"/>
+      <c r="E115" s="52"/>
+      <c r="F115" s="52"/>
+      <c r="G115" s="52"/>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B116" s="31" t="s">
         <v>37</v>
       </c>
@@ -3749,7 +3860,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B117" s="31" t="s">
         <v>37</v>
       </c>
@@ -3769,7 +3880,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B118" s="23">
         <v>1</v>
       </c>
@@ -3789,34 +3900,34 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.45">
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
     </row>
-    <row r="120" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="2:12" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="121" spans="2:12" s="5" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B121" s="29" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="122" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="52" t="s">
+    <row r="122" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="123" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B123" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="C123" s="52"/>
-      <c r="D123" s="52"/>
-      <c r="E123" s="52"/>
-      <c r="F123" s="52"/>
-      <c r="G123" s="52"/>
-      <c r="H123" s="52"/>
-      <c r="I123" s="52"/>
-      <c r="J123" s="52"/>
-      <c r="K123" s="52"/>
-      <c r="L123" s="52"/>
-    </row>
-    <row r="124" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C123" s="51"/>
+      <c r="D123" s="51"/>
+      <c r="E123" s="51"/>
+      <c r="F123" s="51"/>
+      <c r="G123" s="51"/>
+      <c r="H123" s="51"/>
+      <c r="I123" s="51"/>
+      <c r="J123" s="51"/>
+      <c r="K123" s="51"/>
+      <c r="L123" s="51"/>
+    </row>
+    <row r="124" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B124" s="31" t="s">
         <v>143</v>
       </c>
@@ -3851,7 +3962,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="125" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B125" s="23" t="s">
         <v>159</v>
       </c>
@@ -3886,14 +3997,14 @@
         <v>152</v>
       </c>
     </row>
-    <row r="127" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="51" t="s">
+    <row r="127" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="128" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B128" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="C128" s="51"/>
-    </row>
-    <row r="129" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C128" s="52"/>
+    </row>
+    <row r="129" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B129" s="31" t="s">
         <v>0</v>
       </c>
@@ -3901,7 +4012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B130" s="31" t="s">
         <v>2</v>
       </c>
@@ -3909,7 +4020,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="131" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B131" s="31" t="s">
         <v>5</v>
       </c>
@@ -3917,19 +4028,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="51" t="s">
+    <row r="132" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="133" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="134" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B134" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="C134" s="51"/>
-      <c r="D134" s="51"/>
-      <c r="E134" s="51"/>
-      <c r="F134" s="51"/>
-      <c r="G134" s="51"/>
-    </row>
-    <row r="135" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C134" s="52"/>
+      <c r="D134" s="52"/>
+      <c r="E134" s="52"/>
+      <c r="F134" s="52"/>
+      <c r="G134" s="52"/>
+    </row>
+    <row r="135" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B135" s="31" t="s">
         <v>37</v>
       </c>
@@ -3949,7 +4060,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="136" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B136" s="31" t="s">
         <v>37</v>
       </c>
@@ -3969,7 +4080,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="137" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B137" s="23">
         <v>1</v>
       </c>
@@ -3987,20 +4098,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B144" s="52" t="s">
+    <row r="138" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="139" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="140" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="141" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="142" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B144" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="C144" s="52"/>
-      <c r="D144" s="52"/>
-      <c r="E144" s="52"/>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C144" s="51"/>
+      <c r="D144" s="51"/>
+      <c r="E144" s="51"/>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B145" s="31" t="s">
         <v>0</v>
       </c>
@@ -4014,7 +4125,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B146" s="31" t="s">
         <v>2</v>
       </c>
@@ -4028,7 +4139,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B147" s="31" t="s">
         <v>5</v>
       </c>
@@ -4042,7 +4153,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B148" s="31" t="s">
         <v>121</v>
       </c>
@@ -4056,21 +4167,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="149" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B149" s="6"/>
       <c r="C149" s="26"/>
       <c r="D149" s="26"/>
       <c r="E149" s="26"/>
     </row>
-    <row r="150" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="51" t="s">
+    <row r="150" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B150" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="C150" s="51"/>
+      <c r="C150" s="52"/>
       <c r="D150" s="26"/>
       <c r="E150" s="26"/>
     </row>
-    <row r="151" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B151" s="31" t="s">
         <v>0</v>
       </c>
@@ -4080,7 +4191,7 @@
       <c r="D151" s="26"/>
       <c r="E151" s="26"/>
     </row>
-    <row r="152" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B152" s="31" t="s">
         <v>2</v>
       </c>
@@ -4090,7 +4201,7 @@
       <c r="D152" s="26"/>
       <c r="E152" s="26"/>
     </row>
-    <row r="153" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B153" s="31" t="s">
         <v>5</v>
       </c>
@@ -4100,21 +4211,21 @@
       <c r="D153" s="26"/>
       <c r="E153" s="26"/>
     </row>
-    <row r="154" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B154" s="6"/>
       <c r="C154" s="26"/>
       <c r="D154" s="26"/>
       <c r="E154" s="26"/>
     </row>
-    <row r="155" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="51" t="s">
+    <row r="155" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B155" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="C155" s="51"/>
-      <c r="D155" s="51"/>
-      <c r="E155" s="51"/>
-    </row>
-    <row r="156" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C155" s="52"/>
+      <c r="D155" s="52"/>
+      <c r="E155" s="52"/>
+    </row>
+    <row r="156" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B156" s="31" t="s">
         <v>37</v>
       </c>
@@ -4128,7 +4239,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="157" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B157" s="31" t="s">
         <v>37</v>
       </c>
@@ -4142,7 +4253,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="158" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B158" s="23">
         <v>1</v>
       </c>
@@ -4156,27 +4267,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B159" s="6"/>
       <c r="C159" s="26"/>
       <c r="D159" s="26"/>
       <c r="E159" s="26"/>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B161" s="52" t="s">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B161" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="C161" s="52"/>
-      <c r="D161" s="52"/>
-      <c r="E161" s="52"/>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C161" s="51"/>
+      <c r="D161" s="51"/>
+      <c r="E161" s="51"/>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B162" s="31" t="s">
         <v>0</v>
       </c>
@@ -4190,7 +4301,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B163" s="33" t="s">
         <v>112</v>
       </c>
@@ -4204,7 +4315,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B164" s="31" t="s">
         <v>5</v>
       </c>
@@ -4218,7 +4329,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B165" s="33" t="s">
         <v>147</v>
       </c>
@@ -4232,15 +4343,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B168" s="51" t="s">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B168" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="C168" s="51"/>
+      <c r="C168" s="52"/>
       <c r="D168" s="26"/>
       <c r="E168" s="26"/>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B169" s="31" t="s">
         <v>0</v>
       </c>
@@ -4250,7 +4361,7 @@
       <c r="D169" s="26"/>
       <c r="E169" s="26"/>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B170" s="31" t="s">
         <v>2</v>
       </c>
@@ -4260,7 +4371,7 @@
       <c r="D170" s="26"/>
       <c r="E170" s="26"/>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B171" s="31" t="s">
         <v>5</v>
       </c>
@@ -4270,21 +4381,21 @@
       <c r="D171" s="26"/>
       <c r="E171" s="26"/>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B172" s="6"/>
       <c r="C172" s="26"/>
       <c r="D172" s="26"/>
       <c r="E172" s="26"/>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B173" s="51" t="s">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B173" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="C173" s="51"/>
-      <c r="D173" s="51"/>
-      <c r="E173" s="51"/>
-    </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C173" s="52"/>
+      <c r="D173" s="52"/>
+      <c r="E173" s="52"/>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B174" s="36" t="s">
         <v>37</v>
       </c>
@@ -4298,7 +4409,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B175" s="36" t="s">
         <v>37</v>
       </c>
@@ -4312,7 +4423,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B176" s="34">
         <v>1</v>
       </c>
@@ -4327,20 +4438,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B57:D57"/>
+  <mergeCells count="30">
     <mergeCell ref="B168:C168"/>
     <mergeCell ref="B173:E173"/>
     <mergeCell ref="B87:C87"/>
@@ -4355,6 +4453,22 @@
     <mergeCell ref="B134:G134"/>
     <mergeCell ref="B150:C150"/>
     <mergeCell ref="B155:E155"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="F74:H74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SPR_model_naming_verification.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SPR_model_naming_verification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\openL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C956D6-E55B-4665-AB71-0FFFD5947696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC8E328-68B1-426E-9073-4433000642C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" tabRatio="143" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="143" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1393,27 +1393,27 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.86328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.59765625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.265625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="32" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.86328125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30.73046875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="24" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.73046875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="5" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:10" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="2:10" s="5" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" s="5" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="41" t="s">
         <v>7</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>14</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>16</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>46</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="40" t="s">
         <v>27</v>
       </c>
@@ -1511,7 +1511,7 @@
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>0</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>108</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>109</v>
       </c>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
         <v>44</v>
       </c>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>110</v>
       </c>
@@ -1584,13 +1584,13 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G20" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="40" t="s">
         <v>78</v>
       </c>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="G22" s="40"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>0</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>2</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
         <v>5</v>
       </c>
@@ -1642,14 +1642,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="40" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="40"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
         <v>19</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
         <v>19</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
         <v>31</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="40" t="s">
         <v>36</v>
       </c>
@@ -1693,7 +1693,7 @@
       <c r="G36" s="40"/>
       <c r="H36" s="40"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
         <v>39</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="H38" s="16"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>39</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
         <v>1</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="40" t="s">
         <v>81</v>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="E44" s="40"/>
       <c r="F44" s="40"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>37</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>38</v>
       </c>
@@ -1810,7 +1810,7 @@
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="11">
         <v>1</v>
       </c>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="F48" s="11"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="40" t="s">
         <v>80</v>
       </c>
@@ -1851,7 +1851,7 @@
       <c r="E52" s="40"/>
       <c r="F52" s="40"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>37</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="16" t="s">
         <v>38</v>
       </c>
@@ -1879,7 +1879,7 @@
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
         <v>37</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="11">
         <v>1</v>
       </c>
@@ -1936,25 +1936,25 @@
       <selection activeCell="B52" sqref="B52:D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.86328125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="41" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.3984375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38.265625" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="36.3984375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.59765625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="35.86328125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.265625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="36.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:9" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="43" t="s">
         <v>54</v>
       </c>
@@ -1966,7 +1966,7 @@
       <c r="H4" s="43"/>
       <c r="I4" s="43"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>57</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>0</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>112</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>113</v>
       </c>
@@ -2040,17 +2040,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="50" t="s">
         <v>62</v>
       </c>
       <c r="C11" s="50"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>0</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>2</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>5</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="41" t="s">
         <v>65</v>
       </c>
@@ -2084,7 +2084,7 @@
       <c r="F16" s="49"/>
       <c r="G16" s="42"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
         <v>66</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
         <v>66</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
         <v>59</v>
       </c>
@@ -2140,7 +2140,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>60</v>
       </c>
@@ -2156,17 +2156,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="25" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="26" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="2:9" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:9" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="43" t="s">
         <v>71</v>
       </c>
@@ -2179,7 +2179,7 @@
       <c r="H30" s="42"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
         <v>57</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
         <v>0</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>112</v>
       </c>
@@ -2237,7 +2237,7 @@
       <c r="I33" s="8"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
         <v>113</v>
       </c>
@@ -2257,12 +2257,12 @@
       <c r="I34" s="8"/>
       <c r="J34" s="9"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="47" t="s">
         <v>73</v>
       </c>
@@ -2271,7 +2271,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>0</v>
       </c>
@@ -2282,7 +2282,7 @@
       <c r="G39" s="7"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
         <v>2</v>
       </c>
@@ -2293,7 +2293,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
         <v>5</v>
       </c>
@@ -2304,7 +2304,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="40" t="s">
         <v>75</v>
       </c>
@@ -2316,7 +2316,7 @@
       <c r="H43" s="40"/>
       <c r="I43" s="40"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
         <v>66</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>66</v>
       </c>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="11" t="s">
         <v>59</v>
       </c>
@@ -2387,7 +2387,7 @@
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="11" t="s">
         <v>60</v>
       </c>
@@ -2409,22 +2409,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="49" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="50" spans="2:7" s="5" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="2:7" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="2:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="52" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="40" t="s">
         <v>95</v>
       </c>
       <c r="C52" s="40"/>
       <c r="D52" s="40"/>
     </row>
-    <row r="53" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>57</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="16" t="s">
         <v>0</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
         <v>112</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="14" t="s">
         <v>113</v>
       </c>
@@ -2468,19 +2468,19 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="20"/>
       <c r="C57" s="21"/>
       <c r="D57" s="21"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="40" t="s">
         <v>97</v>
       </c>
       <c r="C58" s="40"/>
       <c r="D58" s="19"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="16" t="s">
         <v>0</v>
       </c>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D59" s="22"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
         <v>2</v>
       </c>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
         <v>5</v>
       </c>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="D61" s="6"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="40" t="s">
         <v>100</v>
       </c>
@@ -2517,7 +2517,7 @@
       <c r="F64" s="40"/>
       <c r="G64" s="40"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="16" t="s">
         <v>66</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="16" t="s">
         <v>66</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="11" t="s">
         <v>60</v>
       </c>
@@ -2573,14 +2573,14 @@
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="40" t="s">
         <v>98</v>
       </c>
       <c r="C70" s="40"/>
       <c r="D70" s="40"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="16" t="s">
         <v>57</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="16" t="s">
         <v>0</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
         <v>112</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="16" t="s">
         <v>5</v>
       </c>
@@ -2624,14 +2624,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="40" t="s">
         <v>99</v>
       </c>
       <c r="C76" s="40"/>
       <c r="D76" s="19"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="16" t="s">
         <v>0</v>
       </c>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="D77" s="6"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="16" t="s">
         <v>2</v>
       </c>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="D78" s="6"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="16" t="s">
         <v>5</v>
       </c>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="D79" s="6"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="40" t="s">
         <v>102</v>
       </c>
@@ -2669,7 +2669,7 @@
       <c r="G82" s="40"/>
       <c r="H82" s="23"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="16" t="s">
         <v>66</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="16" t="s">
         <v>66</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="11" t="s">
         <v>60</v>
       </c>
@@ -2759,27 +2759,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:L176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.3984375" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="25.59765625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.73046875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="28" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.3984375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.42578125" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="44" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="53" t="s">
         <v>117</v>
       </c>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="G4" s="52"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="31" t="s">
         <v>0</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="33" t="s">
         <v>118</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="31" t="s">
         <v>5</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
         <v>121</v>
       </c>
@@ -2839,17 +2839,17 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="26"/>
     </row>
-    <row r="10" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="53" t="s">
         <v>170</v>
       </c>
       <c r="C10" s="54"/>
     </row>
-    <row r="11" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="31" t="s">
         <v>37</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
         <v>37</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="23">
         <v>1</v>
       </c>
@@ -2873,19 +2873,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="26"/>
     </row>
-    <row r="15" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="26"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="53" t="s">
         <v>123</v>
       </c>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="G17" s="54"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="31" t="s">
         <v>0</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="31" t="s">
         <v>2</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="31" t="s">
         <v>5</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="31" t="s">
         <v>121</v>
       </c>
@@ -2945,8 +2945,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
         <v>171</v>
       </c>
@@ -2954,7 +2954,7 @@
       <c r="D24" s="52"/>
       <c r="E24" s="52"/>
     </row>
-    <row r="25" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="31" t="s">
         <v>37</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="31" t="s">
         <v>37</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="23">
         <v>1</v>
       </c>
@@ -2996,15 +2996,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="29" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="51" t="s">
         <v>126</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="23" t="s">
         <v>127</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="23" t="s">
         <v>2</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="23" t="s">
         <v>5</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="23" t="s">
         <v>121</v>
       </c>
@@ -3061,15 +3061,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="40" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="41" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
         <v>168</v>
       </c>
       <c r="C41" s="52"/>
     </row>
-    <row r="42" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="31" t="s">
         <v>0</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="31" t="s">
         <v>2</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="31" t="s">
         <v>5</v>
       </c>
@@ -3093,9 +3093,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="46" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="47" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="52" t="s">
         <v>197</v>
       </c>
@@ -3106,7 +3106,7 @@
       <c r="G47" s="52"/>
       <c r="H47" s="52"/>
     </row>
-    <row r="48" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="31" t="s">
         <v>37</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="31" t="s">
         <v>37</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="50" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="23">
         <v>1</v>
       </c>
@@ -3173,18 +3173,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="55" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="51" t="s">
         <v>132</v>
       </c>
@@ -3194,7 +3194,7 @@
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="31" t="s">
         <v>0</v>
       </c>
@@ -3208,7 +3208,7 @@
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="31" t="s">
         <v>2</v>
       </c>
@@ -3222,7 +3222,7 @@
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="31" t="s">
         <v>5</v>
       </c>
@@ -3236,7 +3236,7 @@
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="31" t="s">
         <v>121</v>
       </c>
@@ -3250,18 +3250,18 @@
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="52" t="s">
         <v>190</v>
       </c>
       <c r="C63" s="52"/>
     </row>
-    <row r="64" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="31" t="s">
         <v>0</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="31" t="s">
         <v>2</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="66" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="31" t="s">
         <v>5</v>
       </c>
@@ -3285,8 +3285,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="68" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="52" t="s">
         <v>196</v>
       </c>
@@ -3297,7 +3297,7 @@
       <c r="G68" s="52"/>
       <c r="H68" s="52"/>
     </row>
-    <row r="69" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="31" t="s">
         <v>37</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="70" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="31" t="s">
         <v>37</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="71" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="23">
         <v>1</v>
       </c>
@@ -3366,17 +3366,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="51" t="s">
         <v>142</v>
       </c>
@@ -3388,7 +3388,7 @@
       <c r="G74" s="51"/>
       <c r="H74" s="51"/>
     </row>
-    <row r="75" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="31" t="s">
         <v>143</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="33" t="s">
         <v>112</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="77" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="33" t="s">
         <v>113</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="78" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="33" t="s">
         <v>147</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="79" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="33" t="s">
         <v>149</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="80" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="33" t="s">
         <v>151</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="31" t="s">
         <v>153</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="82" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="31" t="s">
         <v>154</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="83" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="31" t="s">
         <v>155</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="31" t="s">
         <v>156</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="85" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="31" t="s">
         <v>157</v>
       </c>
@@ -3568,11 +3568,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="86" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="28"/>
       <c r="F86" s="28"/>
     </row>
-    <row r="87" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="52" t="s">
         <v>193</v>
       </c>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="G87" s="52"/>
     </row>
-    <row r="88" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="31" t="s">
         <v>0</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="31" t="s">
         <v>2</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="90" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="31" t="s">
         <v>5</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="31" t="s">
         <v>121</v>
       </c>
@@ -3638,11 +3638,11 @@
         <v>229</v>
       </c>
     </row>
-    <row r="92" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="28"/>
       <c r="F92" s="28"/>
     </row>
-    <row r="93" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="52" t="s">
         <v>195</v>
       </c>
@@ -3652,7 +3652,7 @@
       </c>
       <c r="G93" s="52"/>
     </row>
-    <row r="94" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="31" t="s">
         <v>37</v>
       </c>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="H94" s="27"/>
     </row>
-    <row r="95" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="31" t="s">
         <v>37</v>
       </c>
@@ -3686,39 +3686,39 @@
       </c>
       <c r="H95" s="27"/>
     </row>
-    <row r="96" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="23">
         <v>1</v>
       </c>
       <c r="C96" s="30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F96" s="23">
         <v>1</v>
       </c>
       <c r="G96" s="30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="28"/>
       <c r="F97" s="6"/>
       <c r="G97" s="26"/>
       <c r="H97" s="26"/>
     </row>
-    <row r="98" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="28"/>
       <c r="F98" s="6"/>
       <c r="G98" s="26"/>
       <c r="H98" s="26"/>
     </row>
-    <row r="99" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="100" spans="2:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="51" t="s">
         <v>134</v>
       </c>
@@ -3727,7 +3727,7 @@
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="38" t="s">
         <v>135</v>
       </c>
@@ -3738,7 +3738,7 @@
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="33" t="s">
         <v>137</v>
       </c>
@@ -3749,7 +3749,7 @@
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="33" t="s">
         <v>138</v>
       </c>
@@ -3760,7 +3760,7 @@
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="33" t="s">
         <v>139</v>
       </c>
@@ -3771,7 +3771,7 @@
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="33" t="s">
         <v>140</v>
       </c>
@@ -3782,7 +3782,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="33" t="s">
         <v>141</v>
       </c>
@@ -3793,18 +3793,18 @@
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
     </row>
-    <row r="109" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B109" s="52" t="s">
         <v>199</v>
       </c>
       <c r="C109" s="52"/>
     </row>
-    <row r="110" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B110" s="31" t="s">
         <v>0</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B111" s="31" t="s">
         <v>2</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="112" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B112" s="31" t="s">
         <v>5</v>
       </c>
@@ -3828,9 +3828,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="114" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B115" s="52" t="s">
         <v>201</v>
       </c>
@@ -3840,7 +3840,7 @@
       <c r="F115" s="52"/>
       <c r="G115" s="52"/>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B116" s="31" t="s">
         <v>37</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B117" s="31" t="s">
         <v>37</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B118" s="23">
         <v>1</v>
       </c>
@@ -3900,19 +3900,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
     </row>
-    <row r="120" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="121" spans="2:12" s="5" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="120" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="2:12" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="29" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="122" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="123" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B123" s="51" t="s">
         <v>158</v>
       </c>
@@ -3927,7 +3927,7 @@
       <c r="K123" s="51"/>
       <c r="L123" s="51"/>
     </row>
-    <row r="124" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B124" s="31" t="s">
         <v>143</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="125" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B125" s="23" t="s">
         <v>159</v>
       </c>
@@ -3997,14 +3997,14 @@
         <v>152</v>
       </c>
     </row>
-    <row r="127" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="128" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="52" t="s">
         <v>212</v>
       </c>
       <c r="C128" s="52"/>
     </row>
-    <row r="129" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B129" s="31" t="s">
         <v>0</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B130" s="31" t="s">
         <v>2</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="131" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B131" s="31" t="s">
         <v>5</v>
       </c>
@@ -4028,9 +4028,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="133" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="134" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B134" s="52" t="s">
         <v>214</v>
       </c>
@@ -4040,7 +4040,7 @@
       <c r="F134" s="52"/>
       <c r="G134" s="52"/>
     </row>
-    <row r="135" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B135" s="31" t="s">
         <v>37</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="136" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B136" s="31" t="s">
         <v>37</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="137" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B137" s="23">
         <v>1</v>
       </c>
@@ -4098,12 +4098,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="139" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="140" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="141" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="142" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B144" s="51" t="s">
         <v>160</v>
       </c>
@@ -4111,7 +4111,7 @@
       <c r="D144" s="51"/>
       <c r="E144" s="51"/>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145" s="31" t="s">
         <v>0</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B146" s="31" t="s">
         <v>2</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147" s="31" t="s">
         <v>5</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B148" s="31" t="s">
         <v>121</v>
       </c>
@@ -4167,13 +4167,13 @@
         <v>122</v>
       </c>
     </row>
-    <row r="149" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B149" s="6"/>
       <c r="C149" s="26"/>
       <c r="D149" s="26"/>
       <c r="E149" s="26"/>
     </row>
-    <row r="150" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B150" s="52" t="s">
         <v>224</v>
       </c>
@@ -4181,7 +4181,7 @@
       <c r="D150" s="26"/>
       <c r="E150" s="26"/>
     </row>
-    <row r="151" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B151" s="31" t="s">
         <v>0</v>
       </c>
@@ -4191,7 +4191,7 @@
       <c r="D151" s="26"/>
       <c r="E151" s="26"/>
     </row>
-    <row r="152" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B152" s="31" t="s">
         <v>2</v>
       </c>
@@ -4201,7 +4201,7 @@
       <c r="D152" s="26"/>
       <c r="E152" s="26"/>
     </row>
-    <row r="153" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B153" s="31" t="s">
         <v>5</v>
       </c>
@@ -4211,13 +4211,13 @@
       <c r="D153" s="26"/>
       <c r="E153" s="26"/>
     </row>
-    <row r="154" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B154" s="6"/>
       <c r="C154" s="26"/>
       <c r="D154" s="26"/>
       <c r="E154" s="26"/>
     </row>
-    <row r="155" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B155" s="52" t="s">
         <v>225</v>
       </c>
@@ -4225,7 +4225,7 @@
       <c r="D155" s="52"/>
       <c r="E155" s="52"/>
     </row>
-    <row r="156" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B156" s="31" t="s">
         <v>37</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="157" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B157" s="31" t="s">
         <v>37</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="158" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B158" s="23">
         <v>1</v>
       </c>
@@ -4267,19 +4267,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B159" s="6"/>
       <c r="C159" s="26"/>
       <c r="D159" s="26"/>
       <c r="E159" s="26"/>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B161" s="51" t="s">
         <v>163</v>
       </c>
@@ -4287,7 +4287,7 @@
       <c r="D161" s="51"/>
       <c r="E161" s="51"/>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B162" s="31" t="s">
         <v>0</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B163" s="33" t="s">
         <v>112</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B164" s="31" t="s">
         <v>5</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B165" s="33" t="s">
         <v>147</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B168" s="52" t="s">
         <v>226</v>
       </c>
@@ -4351,7 +4351,7 @@
       <c r="D168" s="26"/>
       <c r="E168" s="26"/>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B169" s="31" t="s">
         <v>0</v>
       </c>
@@ -4361,7 +4361,7 @@
       <c r="D169" s="26"/>
       <c r="E169" s="26"/>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B170" s="31" t="s">
         <v>2</v>
       </c>
@@ -4371,7 +4371,7 @@
       <c r="D170" s="26"/>
       <c r="E170" s="26"/>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B171" s="31" t="s">
         <v>5</v>
       </c>
@@ -4381,13 +4381,13 @@
       <c r="D171" s="26"/>
       <c r="E171" s="26"/>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B172" s="6"/>
       <c r="C172" s="26"/>
       <c r="D172" s="26"/>
       <c r="E172" s="26"/>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B173" s="52" t="s">
         <v>228</v>
       </c>
@@ -4395,7 +4395,7 @@
       <c r="D173" s="52"/>
       <c r="E173" s="52"/>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B174" s="36" t="s">
         <v>37</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B175" s="36" t="s">
         <v>37</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B176" s="34">
         <v>1</v>
       </c>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SPR_model_naming_verification.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SPR_model_naming_verification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\openL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkama\.openl\user-workspace\DEFAULT\EPBDS-8844_SPR_model_naming_verification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC8E328-68B1-426E-9073-4433000642C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7C8C2C-84EA-4AE0-99AC-6E496137819F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="143" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3308" yWindow="3308" windowWidth="21600" windowHeight="11535" tabRatio="143" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="260">
   <si>
     <t>Steps</t>
   </si>
@@ -225,12 +225,6 @@
     <t>_context_.usState</t>
   </si>
   <si>
-    <t>_res_.$Step2["Step2"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["Step1"]</t>
-  </si>
-  <si>
     <t>_res_.$Step2["Row1"]</t>
   </si>
   <si>
@@ -252,12 +246,6 @@
     <t>Test differentVersionAny differentVersionAnyTest</t>
   </si>
   <si>
-    <t>_res_.$Step2["Calculation_Step2"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["anycell_Step1"]</t>
-  </si>
-  <si>
     <t>Spreadsheet SpreadsheetResult oneColumntoMap(MyType a)</t>
   </si>
   <si>
@@ -270,36 +258,12 @@
     <t>Test  oneColumntoMap oneColumntoMaptest</t>
   </si>
   <si>
-    <t>_res_.$Step2["Step1"]:int</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["Step2"]:int</t>
-  </si>
-  <si>
     <t>_res_.$Step2["Row1"]:int</t>
   </si>
   <si>
     <t>_res_.$Step2["Row2"]:int</t>
   </si>
   <si>
-    <t>_res_.$Step2["Calculation_Step2"]:int</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["anycell_Step1"]:int</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["anycell_Step2"]:int</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["anycell_Step2"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["Calculation_Step1"]:int</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["Calculation_Step1"]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Different buiseness versions of Spreadsheets with the different numbers of cells </t>
   </si>
   <si>
@@ -333,12 +297,6 @@
     <t>Test differentVersionAny_OnlyRow differentVersionAny_OnlyRowTest</t>
   </si>
   <si>
-    <t>_res_.$Step2["Calculation"]:int</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["Calculation"]</t>
-  </si>
-  <si>
     <t>_res_.$Step2["anycell"]:int</t>
   </si>
   <si>
@@ -549,60 +507,12 @@
     <t>_res_.$Step2[" Step3"]</t>
   </si>
   <si>
-    <t>_res_.$Step2["Step3"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["Step1"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["Step2"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["Step3"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["OtherValues_Step1"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["Values_Step1"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["OtherValues_Step2"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["Values_Step2"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["OtherValues_Step3"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["Values_Step3"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["OtherValues_Step1"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["Values_Step1"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["OtherValues_Step2"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["Values_Step2"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["Values_Step3"]:Integer</t>
-  </si>
-  <si>
     <t>Spreadsheet SpreadsheetResult emptySpr_toMap(Integer a)</t>
   </si>
   <si>
     <t>=emptySpr(a)</t>
   </si>
   <si>
-    <t>_res_.$Step2["OtherValues_Step3"]:Integer</t>
-  </si>
-  <si>
     <t>Spreadsheet SpreadsheetResult validationSprFull_toMap(Integer a)</t>
   </si>
   <si>
@@ -681,18 +591,6 @@
     <t>=someValue+3</t>
   </si>
   <si>
-    <t>_res_.$Step2["Step4"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["Step5"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["Step4"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["Step5"]:Integer</t>
-  </si>
-  <si>
     <t>=sprNotEnoghtAst1(a)</t>
   </si>
   <si>
@@ -757,16 +655,164 @@
   </si>
   <si>
     <t>Result0</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["step1"]:int</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["step2"]:int</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["step1"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["step2"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["step1"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["step2"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["step3"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["step4"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["step5"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["step3"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["step4"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["step5"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["calculation"]:int</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["calculation"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["calculationStep1"]:int</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["calculationStep1"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["calculationStep2"]:int</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["calculationStep2"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["anycellStep1"]:int</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["anycellStep2"]:int</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["anycellStep1"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["anycellStep2"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["valuesStep1"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["valuesStep2"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["valuesStep3"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["valuesStep1"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["valuesStep2"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["valuesStep3"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["otherValuesStep1"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["otherValuesStep2"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["otherValuesStep3"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["otherValuesStep1"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["otherValuesStep2"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["otherValuesStep3"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["row1"]:int</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["row1"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["row2"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["row2"]:int</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["testYYY"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["testYYY"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["Yin_Shua_Zhong_De_Xing_Hao"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["Yin_Shua_Zhong_De_Xing_Hao"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["yin_Shua_Zhong_De_Xing_Hao"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["yin_Shua_Zhong_De_Xing_Hao"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["yin_Shua_Zhong_De_Xing_Hao_"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["yin_Shua_Zhong_De_Xing_Hao_"]</t>
+  </si>
+  <si>
+    <t>тест *</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["userData"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["myRow"]:MyType</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="1" rgb="000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -803,19 +849,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.79998168889431442" rgb="9BBB59"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2" rgb="FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.14999847407452621" rgb="FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,7 +873,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.59999389629810485" rgb="9BBB59"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,8 +977,8 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1393,27 +1439,27 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="21.86328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.59765625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.265625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.86328125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.73046875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.73046875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" s="5" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" s="5" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" s="5" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B5" s="41" t="s">
         <v>7</v>
       </c>
@@ -1426,7 +1472,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -1443,7 +1489,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
@@ -1460,7 +1506,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
@@ -1474,7 +1520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B9" s="11" t="s">
         <v>14</v>
       </c>
@@ -1482,7 +1528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B10" s="11" t="s">
         <v>16</v>
       </c>
@@ -1490,7 +1536,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B11" s="11" t="s">
         <v>46</v>
       </c>
@@ -1498,7 +1544,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B13" s="40" t="s">
         <v>27</v>
       </c>
@@ -1511,7 +1557,7 @@
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B14" s="16" t="s">
         <v>0</v>
       </c>
@@ -1522,21 +1568,21 @@
         <v>0</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>44</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B15" s="14" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>28</v>
@@ -1557,16 +1603,16 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B16" s="14" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>42</v>
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="16" t="s">
         <v>44</v>
       </c>
@@ -1575,32 +1621,32 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="14" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>48</v>
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="G20" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C22" s="40"/>
       <c r="F22" s="40" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G22" s="40"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="16" t="s">
         <v>0</v>
       </c>
@@ -1614,7 +1660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="16" t="s">
         <v>2</v>
       </c>
@@ -1628,7 +1674,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="16" t="s">
         <v>5</v>
       </c>
@@ -1642,14 +1688,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" s="40" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="40"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" s="16" t="s">
         <v>19</v>
       </c>
@@ -1660,7 +1706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" s="16" t="s">
         <v>19</v>
       </c>
@@ -1671,7 +1717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B33" s="11" t="s">
         <v>31</v>
       </c>
@@ -1682,7 +1728,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B36" s="40" t="s">
         <v>36</v>
       </c>
@@ -1693,7 +1739,7 @@
       <c r="G36" s="40"/>
       <c r="H36" s="40"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B37" s="16" t="s">
         <v>39</v>
       </c>
@@ -1716,7 +1762,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -1727,7 +1773,7 @@
       </c>
       <c r="H38" s="16"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B39" s="16" t="s">
         <v>39</v>
       </c>
@@ -1750,7 +1796,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B40" s="11">
         <v>1</v>
       </c>
@@ -1773,24 +1819,24 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B44" s="40" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C44" s="40"/>
       <c r="D44" s="40"/>
       <c r="E44" s="40"/>
       <c r="F44" s="40"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B45" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>41</v>
+        <v>259</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>43</v>
+        <v>258</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>50</v>
@@ -1799,7 +1845,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B46" s="16" t="s">
         <v>38</v>
       </c>
@@ -1810,7 +1856,7 @@
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
@@ -1818,7 +1864,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>43</v>
+        <v>258</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>49</v>
@@ -1827,7 +1873,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B48" s="11">
         <v>1</v>
       </c>
@@ -1842,24 +1888,24 @@
       </c>
       <c r="F48" s="11"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B52" s="40" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C52" s="40"/>
       <c r="D52" s="40"/>
       <c r="E52" s="40"/>
       <c r="F52" s="40"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B53" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>41</v>
+        <v>259</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>43</v>
+        <v>258</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>50</v>
@@ -1868,7 +1914,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B54" s="16" t="s">
         <v>38</v>
       </c>
@@ -1879,7 +1925,7 @@
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B55" s="16" t="s">
         <v>37</v>
       </c>
@@ -1887,7 +1933,7 @@
         <v>40</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>43</v>
+        <v>258</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>49</v>
@@ -1896,7 +1942,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B56" s="11">
         <v>1</v>
       </c>
@@ -1932,29 +1978,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J85"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:D56"/>
+    <sheetView topLeftCell="C67" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="36.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="25.86328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="32.3984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="38.265625" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="36.3984375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="30.59765625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="35.86328125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.265625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="43" t="s">
         <v>54</v>
       </c>
@@ -1966,7 +2012,7 @@
       <c r="H4" s="43"/>
       <c r="I4" s="43"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="16" t="s">
         <v>57</v>
       </c>
@@ -1986,7 +2032,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="16" t="s">
         <v>0</v>
       </c>
@@ -2004,16 +2050,16 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="14" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C7" s="45" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="46"/>
       <c r="G7" s="14" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="H7" s="45" t="s">
         <v>55</v>
@@ -2022,16 +2068,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="14" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C8" s="45" t="s">
         <v>56</v>
       </c>
       <c r="D8" s="46"/>
       <c r="G8" s="14" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="H8" s="45" t="s">
         <v>56</v>
@@ -2040,17 +2086,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
         <v>62</v>
       </c>
       <c r="C11" s="50"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12" s="16" t="s">
         <v>0</v>
       </c>
@@ -2058,7 +2104,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13" s="11" t="s">
         <v>2</v>
       </c>
@@ -2066,7 +2112,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14" s="11" t="s">
         <v>5</v>
       </c>
@@ -2074,7 +2120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B16" s="41" t="s">
         <v>65</v>
       </c>
@@ -2084,7 +2130,7 @@
       <c r="F16" s="49"/>
       <c r="G16" s="42"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" s="16" t="s">
         <v>66</v>
       </c>
@@ -2092,19 +2138,19 @@
         <v>37</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>84</v>
+        <v>245</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" s="16" t="s">
         <v>66</v>
       </c>
@@ -2112,19 +2158,19 @@
         <v>37</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>67</v>
+        <v>214</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>69</v>
+        <v>246</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" s="11" t="s">
         <v>59</v>
       </c>
@@ -2140,7 +2186,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" s="11" t="s">
         <v>60</v>
       </c>
@@ -2156,30 +2202,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:9" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="25" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="2:9" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B30" s="43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C30" s="43"/>
       <c r="D30" s="43"/>
       <c r="F30" s="41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G30" s="49"/>
       <c r="H30" s="42"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B31" s="16" t="s">
         <v>57</v>
       </c>
@@ -2199,7 +2245,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B32" s="16" t="s">
         <v>0</v>
       </c>
@@ -2211,22 +2257,22 @@
         <v>0</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B33" s="14" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C33" s="45" t="s">
         <v>55</v>
       </c>
       <c r="D33" s="46"/>
       <c r="F33" s="14" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>55</v>
@@ -2237,16 +2283,16 @@
       <c r="I33" s="8"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B34" s="14" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C34" s="45" t="s">
         <v>56</v>
       </c>
       <c r="D34" s="46"/>
       <c r="F34" s="14" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>56</v>
@@ -2257,21 +2303,21 @@
       <c r="I34" s="8"/>
       <c r="J34" s="9"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B38" s="47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C38" s="48"/>
       <c r="F38" s="4"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B39" s="16" t="s">
         <v>0</v>
       </c>
@@ -2282,18 +2328,18 @@
       <c r="G39" s="7"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B40" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B41" s="16" t="s">
         <v>5</v>
       </c>
@@ -2304,9 +2350,9 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B43" s="40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C43" s="40"/>
       <c r="D43" s="40"/>
@@ -2316,7 +2362,7 @@
       <c r="H43" s="40"/>
       <c r="I43" s="40"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B44" s="16" t="s">
         <v>66</v>
       </c>
@@ -2324,25 +2370,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>86</v>
+        <v>227</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>87</v>
+        <v>229</v>
       </c>
       <c r="I44" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B45" s="16" t="s">
         <v>66</v>
       </c>
@@ -2350,26 +2396,26 @@
         <v>37</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>67</v>
+        <v>214</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>91</v>
+        <v>226</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="I45" s="16" t="s">
-        <v>89</v>
+        <v>232</v>
       </c>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B46" s="11" t="s">
         <v>59</v>
       </c>
@@ -2387,7 +2433,7 @@
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B47" s="11" t="s">
         <v>60</v>
       </c>
@@ -2409,22 +2455,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="2:7" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="49" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="50" spans="2:7" s="5" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="52" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B52" s="40" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C52" s="40"/>
       <c r="D52" s="40"/>
     </row>
-    <row r="53" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B53" s="16" t="s">
         <v>57</v>
       </c>
@@ -2435,20 +2481,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B54" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B55" s="14" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>55</v>
@@ -2457,9 +2503,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B56" s="14" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>56</v>
@@ -2468,19 +2514,19 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B57" s="20"/>
       <c r="C57" s="21"/>
       <c r="D57" s="21"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B58" s="40" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C58" s="40"/>
       <c r="D58" s="19"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B59" s="16" t="s">
         <v>0</v>
       </c>
@@ -2489,16 +2535,16 @@
       </c>
       <c r="D59" s="22"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B60" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B61" s="16" t="s">
         <v>5</v>
       </c>
@@ -2507,9 +2553,9 @@
       </c>
       <c r="D61" s="6"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B64" s="40" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C64" s="40"/>
       <c r="D64" s="40"/>
@@ -2517,7 +2563,7 @@
       <c r="F64" s="40"/>
       <c r="G64" s="40"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B65" s="16" t="s">
         <v>66</v>
       </c>
@@ -2525,19 +2571,19 @@
         <v>37</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B66" s="16" t="s">
         <v>66</v>
       </c>
@@ -2545,19 +2591,19 @@
         <v>37</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>67</v>
+        <v>214</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>89</v>
+        <v>232</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B67" s="11" t="s">
         <v>60</v>
       </c>
@@ -2573,14 +2619,14 @@
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B70" s="40" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C70" s="40"/>
       <c r="D70" s="40"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B71" s="16" t="s">
         <v>57</v>
       </c>
@@ -2591,20 +2637,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B72" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B73" s="14" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>55</v>
@@ -2613,7 +2659,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B74" s="16" t="s">
         <v>5</v>
       </c>
@@ -2624,14 +2670,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B76" s="40" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C76" s="40"/>
       <c r="D76" s="19"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B77" s="16" t="s">
         <v>0</v>
       </c>
@@ -2640,16 +2686,16 @@
       </c>
       <c r="D77" s="6"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B78" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D78" s="6"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B79" s="16" t="s">
         <v>5</v>
       </c>
@@ -2658,9 +2704,9 @@
       </c>
       <c r="D79" s="6"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B82" s="40" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C82" s="40"/>
       <c r="D82" s="40"/>
@@ -2669,7 +2715,7 @@
       <c r="G82" s="40"/>
       <c r="H82" s="23"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B83" s="16" t="s">
         <v>66</v>
       </c>
@@ -2677,19 +2723,19 @@
         <v>37</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>87</v>
+        <v>229</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B84" s="16" t="s">
         <v>66</v>
       </c>
@@ -2697,19 +2743,19 @@
         <v>37</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>104</v>
+        <v>224</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B85" s="11" t="s">
         <v>60</v>
       </c>
@@ -2759,37 +2805,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:L176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="47.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="44" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="47.3984375" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="25.59765625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="32.73046875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.3984375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="44.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="53" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C4" s="54"/>
       <c r="F4" s="52" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="G4" s="52"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="31" t="s">
         <v>0</v>
       </c>
@@ -2803,26 +2849,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="33" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F6" s="31" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F7" s="31" t="s">
         <v>5</v>
@@ -2831,41 +2877,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="31" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B9" s="6"/>
       <c r="C9" s="26"/>
     </row>
-    <row r="10" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B10" s="53" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C10" s="54"/>
     </row>
-    <row r="11" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B11" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B12" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B13" s="23">
         <v>1</v>
       </c>
@@ -2873,34 +2919,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B14" s="6"/>
       <c r="C14" s="26"/>
     </row>
-    <row r="15" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B15" s="6"/>
       <c r="C15" s="26"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="53" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C17" s="54"/>
       <c r="F17" s="53" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="G17" s="54"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F18" s="31" t="s">
         <v>0</v>
@@ -2909,26 +2955,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F19" s="31" t="s">
         <v>2</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F20" s="31" t="s">
         <v>5</v>
@@ -2937,52 +2983,52 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="31" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B24" s="52" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C24" s="52"/>
       <c r="D24" s="52"/>
       <c r="E24" s="52"/>
     </row>
-    <row r="25" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B25" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B26" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B27" s="23">
         <v>1</v>
       </c>
@@ -2996,80 +3042,80 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B31" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B33" s="51" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C33" s="51"/>
       <c r="D33" s="51"/>
       <c r="F33" s="25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B34" s="23" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B35" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B36" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B37" s="23" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="40" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="41" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B41" s="52" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C41" s="52"/>
     </row>
-    <row r="42" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B42" s="31" t="s">
         <v>0</v>
       </c>
@@ -3077,15 +3123,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B43" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B44" s="31" t="s">
         <v>5</v>
       </c>
@@ -3093,11 +3139,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="46" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="47" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B47" s="52" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="C47" s="52"/>
       <c r="D47" s="52"/>
@@ -3106,53 +3152,53 @@
       <c r="G47" s="52"/>
       <c r="H47" s="52"/>
     </row>
-    <row r="48" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B48" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>183</v>
+        <v>241</v>
       </c>
       <c r="H48" s="32" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B49" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>181</v>
+        <v>243</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="G49" s="32" t="s">
-        <v>183</v>
+        <v>241</v>
       </c>
       <c r="H49" s="32" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B50" s="23">
         <v>1</v>
       </c>
@@ -3173,20 +3219,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="55" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B55" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B57" s="51" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C57" s="51"/>
       <c r="D57" s="51"/>
@@ -3194,7 +3240,7 @@
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B58" s="31" t="s">
         <v>0</v>
       </c>
@@ -3202,66 +3248,66 @@
         <v>1</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B59" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B60" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B61" s="31" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.45">
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B63" s="52" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="C63" s="52"/>
     </row>
-    <row r="64" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B64" s="31" t="s">
         <v>0</v>
       </c>
@@ -3269,15 +3315,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B65" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B66" s="31" t="s">
         <v>5</v>
       </c>
@@ -3285,10 +3331,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="68" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B68" s="52" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="C68" s="52"/>
       <c r="D68" s="52"/>
@@ -3297,53 +3343,53 @@
       <c r="G68" s="52"/>
       <c r="H68" s="52"/>
     </row>
-    <row r="69" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B69" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="D69" s="32" t="s">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="E69" s="32" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="F69" s="32" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="G69" s="32" t="s">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c r="H69" s="32" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B70" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="E70" s="32" t="s">
-        <v>181</v>
+        <v>243</v>
       </c>
       <c r="F70" s="32" t="s">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="G70" s="32" t="s">
-        <v>183</v>
+        <v>241</v>
       </c>
       <c r="H70" s="32" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B71" s="23">
         <v>1</v>
       </c>
@@ -3366,223 +3412,223 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.45">
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.45">
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B74" s="51" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C74" s="51"/>
       <c r="D74" s="51"/>
       <c r="F74" s="51" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="G74" s="51"/>
       <c r="H74" s="51"/>
     </row>
-    <row r="75" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B75" s="31" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D75" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="F75" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G75" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="H75" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="F75" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="G75" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="H75" s="33" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B76" s="33" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C76" s="24"/>
       <c r="D76" s="24" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="F76" s="31" t="s">
         <v>2</v>
       </c>
       <c r="G76" s="24"/>
       <c r="H76" s="24" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B77" s="33" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C77" s="24"/>
       <c r="D77" s="24" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="F77" s="31" t="s">
         <v>5</v>
       </c>
       <c r="G77" s="24"/>
       <c r="H77" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B78" s="33" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C78" s="24"/>
       <c r="D78" s="24" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="F78" s="31" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="G78" s="24"/>
       <c r="H78" s="24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B79" s="33" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C79" s="24"/>
       <c r="D79" s="24" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="F79" s="31" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="G79" s="24"/>
       <c r="H79" s="24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B80" s="33" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C80" s="24"/>
       <c r="D80" s="24" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="F80" s="31" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="G80" s="24"/>
       <c r="H80" s="24" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B81" s="31" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C81" s="24"/>
       <c r="D81" s="24" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="F81" s="33" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="G81" s="24"/>
       <c r="H81" s="24" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B82" s="31" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C82" s="24"/>
       <c r="D82" s="24" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="F82" s="33" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="G82" s="24"/>
       <c r="H82" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B83" s="31" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C83" s="24"/>
       <c r="D83" s="24" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="F83" s="33" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="G83" s="24"/>
       <c r="H83" s="24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B84" s="31" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C84" s="24"/>
       <c r="D84" s="24" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="F84" s="33" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="G84" s="24"/>
       <c r="H84" s="24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B85" s="31" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C85" s="24"/>
       <c r="D85" s="24" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="F85" s="33" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="G85" s="24"/>
       <c r="H85" s="24" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B86" s="28"/>
       <c r="F86" s="28"/>
     </row>
-    <row r="87" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B87" s="52" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="C87" s="52"/>
       <c r="F87" s="52" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="G87" s="52"/>
     </row>
-    <row r="88" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B88" s="31" t="s">
         <v>0</v>
       </c>
@@ -3596,21 +3642,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B89" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="F89" s="31" t="s">
         <v>2</v>
       </c>
       <c r="G89" s="24" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B90" s="31" t="s">
         <v>5</v>
       </c>
@@ -3624,40 +3670,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B91" s="31" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="F91" s="31" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="G91" s="24" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B92" s="28"/>
       <c r="F92" s="28"/>
     </row>
-    <row r="93" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B93" s="52" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="C93" s="52"/>
       <c r="F93" s="52" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="G93" s="52"/>
     </row>
-    <row r="94" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B94" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="D94" s="27"/>
       <c r="E94" s="27"/>
@@ -3665,16 +3711,16 @@
         <v>37</v>
       </c>
       <c r="G94" s="32" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="H94" s="27"/>
     </row>
-    <row r="95" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B95" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C95" s="32" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="D95" s="27"/>
       <c r="E95" s="27"/>
@@ -3682,11 +3728,11 @@
         <v>37</v>
       </c>
       <c r="G95" s="32" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="H95" s="27"/>
     </row>
-    <row r="96" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B96" s="23">
         <v>1</v>
       </c>
@@ -3700,111 +3746,111 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B97" s="28"/>
       <c r="F97" s="6"/>
       <c r="G97" s="26"/>
       <c r="H97" s="26"/>
     </row>
-    <row r="98" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B98" s="28"/>
       <c r="F98" s="6"/>
       <c r="G98" s="26"/>
       <c r="H98" s="26"/>
     </row>
-    <row r="99" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B99" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B101" s="51" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C101" s="51"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B102" s="38" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C102" s="39" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B103" s="33" t="s">
-        <v>137</v>
+        <v>257</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B104" s="33" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B105" s="33" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B106" s="33" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B107" s="33" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.45">
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
     </row>
-    <row r="109" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B109" s="52" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="C109" s="52"/>
     </row>
-    <row r="110" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B110" s="31" t="s">
         <v>0</v>
       </c>
@@ -3812,15 +3858,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B111" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B112" s="31" t="s">
         <v>5</v>
       </c>
@@ -3828,11 +3874,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="114" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B115" s="52" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="C115" s="52"/>
       <c r="D115" s="52"/>
@@ -3840,47 +3886,47 @@
       <c r="F115" s="52"/>
       <c r="G115" s="52"/>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B116" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="D116" s="32" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="E116" s="32" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="F116" s="32" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="G116" s="32" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B117" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="D117" s="32" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="E117" s="32" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="F117" s="32" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="G117" s="32" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B118" s="23">
         <v>1</v>
       </c>
@@ -3900,21 +3946,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.45">
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
     </row>
-    <row r="120" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="2:12" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="121" spans="2:12" s="5" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B121" s="29" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="122" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="122" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="123" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B123" s="51" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C123" s="51"/>
       <c r="D123" s="51"/>
@@ -3927,84 +3973,84 @@
       <c r="K123" s="51"/>
       <c r="L123" s="51"/>
     </row>
-    <row r="124" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B124" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C124" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D124" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E124" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="F124" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="G124" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="H124" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="I124" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="J124" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="K124" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="L124" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="C124" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="D124" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="E124" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="F124" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="G124" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="H124" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="I124" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="J124" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="K124" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="L124" s="31" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="125" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B125" s="23" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="E125" s="24" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="F125" s="24" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="G125" s="24" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="H125" s="24" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="I125" s="24" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="J125" s="24" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K125" s="24" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="L125" s="24" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="127" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="128" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B128" s="52" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="C128" s="52"/>
     </row>
-    <row r="129" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B129" s="31" t="s">
         <v>0</v>
       </c>
@@ -4012,15 +4058,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B130" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="131" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B131" s="31" t="s">
         <v>5</v>
       </c>
@@ -4028,11 +4074,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="133" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="134" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B134" s="52" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="C134" s="52"/>
       <c r="D134" s="52"/>
@@ -4040,47 +4086,47 @@
       <c r="F134" s="52"/>
       <c r="G134" s="52"/>
     </row>
-    <row r="135" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B135" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="D135" s="32" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="E135" s="32" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="F135" s="32" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G135" s="32" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="136" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B136" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="D136" s="32" t="s">
-        <v>67</v>
+        <v>214</v>
       </c>
       <c r="E136" s="32" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="F136" s="32" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G136" s="32" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="137" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B137" s="23">
         <v>1</v>
       </c>
@@ -4098,20 +4144,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="139" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="140" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="141" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="142" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B144" s="51" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C144" s="51"/>
       <c r="D144" s="51"/>
       <c r="E144" s="51"/>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B145" s="31" t="s">
         <v>0</v>
       </c>
@@ -4119,69 +4165,69 @@
         <v>1</v>
       </c>
       <c r="D145" s="33" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E145" s="31" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B146" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C146" s="24" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D146" s="24" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E146" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B147" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C147" s="24" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D147" s="24" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E147" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B148" s="31" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C148" s="24" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D148" s="24" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E148" s="24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B149" s="6"/>
       <c r="C149" s="26"/>
       <c r="D149" s="26"/>
       <c r="E149" s="26"/>
     </row>
-    <row r="150" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B150" s="52" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="C150" s="52"/>
       <c r="D150" s="26"/>
       <c r="E150" s="26"/>
     </row>
-    <row r="151" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B151" s="31" t="s">
         <v>0</v>
       </c>
@@ -4191,17 +4237,17 @@
       <c r="D151" s="26"/>
       <c r="E151" s="26"/>
     </row>
-    <row r="152" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B152" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C152" s="24" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="D152" s="26"/>
       <c r="E152" s="26"/>
     </row>
-    <row r="153" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B153" s="31" t="s">
         <v>5</v>
       </c>
@@ -4211,49 +4257,49 @@
       <c r="D153" s="26"/>
       <c r="E153" s="26"/>
     </row>
-    <row r="154" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B154" s="6"/>
       <c r="C154" s="26"/>
       <c r="D154" s="26"/>
       <c r="E154" s="26"/>
     </row>
-    <row r="155" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B155" s="52" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="C155" s="52"/>
       <c r="D155" s="52"/>
       <c r="E155" s="52"/>
     </row>
-    <row r="156" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B156" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C156" s="32" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="D156" s="32" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="E156" s="32" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B157" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C157" s="32" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="D157" s="32" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="E157" s="32" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B158" s="23">
         <v>1</v>
       </c>
@@ -4267,27 +4313,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B159" s="6"/>
       <c r="C159" s="26"/>
       <c r="D159" s="26"/>
       <c r="E159" s="26"/>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B161" s="51" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C161" s="51"/>
       <c r="D161" s="51"/>
       <c r="E161" s="51"/>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B162" s="31" t="s">
         <v>0</v>
       </c>
@@ -4295,63 +4341,63 @@
         <v>1</v>
       </c>
       <c r="D162" s="31" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E162" s="31" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B163" s="33" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C163" s="24" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D163" s="24" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E163" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B164" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C164" s="24" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D164" s="24" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E164" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B165" s="33" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C165" s="24" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D165" s="24" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E165" s="24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B168" s="52" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="C168" s="52"/>
       <c r="D168" s="26"/>
       <c r="E168" s="26"/>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B169" s="31" t="s">
         <v>0</v>
       </c>
@@ -4361,17 +4407,17 @@
       <c r="D169" s="26"/>
       <c r="E169" s="26"/>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B170" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C170" s="24" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="D170" s="26"/>
       <c r="E170" s="26"/>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B171" s="31" t="s">
         <v>5</v>
       </c>
@@ -4381,49 +4427,49 @@
       <c r="D171" s="26"/>
       <c r="E171" s="26"/>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B172" s="6"/>
       <c r="C172" s="26"/>
       <c r="D172" s="26"/>
       <c r="E172" s="26"/>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B173" s="52" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="C173" s="52"/>
       <c r="D173" s="52"/>
       <c r="E173" s="52"/>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B174" s="36" t="s">
         <v>37</v>
       </c>
       <c r="C174" s="37" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="D174" s="37" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="E174" s="37" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B175" s="36" t="s">
         <v>37</v>
       </c>
       <c r="C175" s="37" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="D175" s="37" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="E175" s="37" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B176" s="34">
         <v>1</v>
       </c>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SPR_model_naming_verification.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SPR_model_naming_verification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkama\.openl\user-workspace\DEFAULT\EPBDS-8844_SPR_model_naming_verification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\openL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7C8C2C-84EA-4AE0-99AC-6E496137819F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC8E328-68B1-426E-9073-4433000642C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="21600" windowHeight="11535" tabRatio="143" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="143" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="245">
   <si>
     <t>Steps</t>
   </si>
@@ -225,6 +225,12 @@
     <t>_context_.usState</t>
   </si>
   <si>
+    <t>_res_.$Step2["Step2"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["Step1"]</t>
+  </si>
+  <si>
     <t>_res_.$Step2["Row1"]</t>
   </si>
   <si>
@@ -246,6 +252,12 @@
     <t>Test differentVersionAny differentVersionAnyTest</t>
   </si>
   <si>
+    <t>_res_.$Step2["Calculation_Step2"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["anycell_Step1"]</t>
+  </si>
+  <si>
     <t>Spreadsheet SpreadsheetResult oneColumntoMap(MyType a)</t>
   </si>
   <si>
@@ -258,12 +270,36 @@
     <t>Test  oneColumntoMap oneColumntoMaptest</t>
   </si>
   <si>
+    <t>_res_.$Step2["Step1"]:int</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["Step2"]:int</t>
+  </si>
+  <si>
     <t>_res_.$Step2["Row1"]:int</t>
   </si>
   <si>
     <t>_res_.$Step2["Row2"]:int</t>
   </si>
   <si>
+    <t>_res_.$Step2["Calculation_Step2"]:int</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["anycell_Step1"]:int</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["anycell_Step2"]:int</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["anycell_Step2"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["Calculation_Step1"]:int</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["Calculation_Step1"]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Different buiseness versions of Spreadsheets with the different numbers of cells </t>
   </si>
   <si>
@@ -297,6 +333,12 @@
     <t>Test differentVersionAny_OnlyRow differentVersionAny_OnlyRowTest</t>
   </si>
   <si>
+    <t>_res_.$Step2["Calculation"]:int</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["Calculation"]</t>
+  </si>
+  <si>
     <t>_res_.$Step2["anycell"]:int</t>
   </si>
   <si>
@@ -507,12 +549,60 @@
     <t>_res_.$Step2[" Step3"]</t>
   </si>
   <si>
+    <t>_res_.$Step2["Step3"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["Step1"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["Step2"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["Step3"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["OtherValues_Step1"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["Values_Step1"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["OtherValues_Step2"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["Values_Step2"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["OtherValues_Step3"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["Values_Step3"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["OtherValues_Step1"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["Values_Step1"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["OtherValues_Step2"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["Values_Step2"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["Values_Step3"]:Integer</t>
+  </si>
+  <si>
     <t>Spreadsheet SpreadsheetResult emptySpr_toMap(Integer a)</t>
   </si>
   <si>
     <t>=emptySpr(a)</t>
   </si>
   <si>
+    <t>_res_.$Step2["OtherValues_Step3"]:Integer</t>
+  </si>
+  <si>
     <t>Spreadsheet SpreadsheetResult validationSprFull_toMap(Integer a)</t>
   </si>
   <si>
@@ -591,6 +681,18 @@
     <t>=someValue+3</t>
   </si>
   <si>
+    <t>_res_.$Step2["Step4"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["Step5"]</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["Step4"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["Step5"]:Integer</t>
+  </si>
+  <si>
     <t>=sprNotEnoghtAst1(a)</t>
   </si>
   <si>
@@ -655,164 +757,16 @@
   </si>
   <si>
     <t>Result0</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["step1"]:int</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["step2"]:int</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["step1"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["step2"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["step1"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["step2"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["step3"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["step4"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["step5"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["step3"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["step4"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["step5"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["calculation"]:int</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["calculation"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["calculationStep1"]:int</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["calculationStep1"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["calculationStep2"]:int</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["calculationStep2"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["anycellStep1"]:int</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["anycellStep2"]:int</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["anycellStep1"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["anycellStep2"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["valuesStep1"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["valuesStep2"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["valuesStep3"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["valuesStep1"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["valuesStep2"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["valuesStep3"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["otherValuesStep1"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["otherValuesStep2"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["otherValuesStep3"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["otherValuesStep1"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["otherValuesStep2"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["otherValuesStep3"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["row1"]:int</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["row1"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["row2"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["row2"]:int</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["testYYY"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["testYYY"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["Yin_Shua_Zhong_De_Xing_Hao"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["Yin_Shua_Zhong_De_Xing_Hao"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["yin_Shua_Zhong_De_Xing_Hao"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["yin_Shua_Zhong_De_Xing_Hao"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["yin_Shua_Zhong_De_Xing_Hao_"]:Integer</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["yin_Shua_Zhong_De_Xing_Hao_"]</t>
-  </si>
-  <si>
-    <t>тест *</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["userData"]</t>
-  </si>
-  <si>
-    <t>_res_.$Step2["myRow"]:MyType</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1" rgb="000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -849,19 +803,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442" rgb="9BBB59"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2" rgb="FFFFFF"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621" rgb="FFFFFF"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,7 +827,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485" rgb="9BBB59"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,8 +931,8 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1439,27 +1393,27 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="21.86328125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.59765625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.265625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.86328125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.73046875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.73046875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="5" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:10" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" s="5" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" s="5" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="41" t="s">
         <v>7</v>
       </c>
@@ -1472,7 +1426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -1489,7 +1443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
@@ -1506,7 +1460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
@@ -1520,7 +1474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>14</v>
       </c>
@@ -1528,7 +1482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>16</v>
       </c>
@@ -1536,7 +1490,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>46</v>
       </c>
@@ -1544,7 +1498,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="40" t="s">
         <v>27</v>
       </c>
@@ -1557,7 +1511,7 @@
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>0</v>
       </c>
@@ -1568,21 +1522,21 @@
         <v>0</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>44</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>28</v>
@@ -1603,16 +1557,16 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>42</v>
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
         <v>44</v>
       </c>
@@ -1621,32 +1575,32 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>48</v>
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G20" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="40" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C22" s="40"/>
       <c r="F22" s="40" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G22" s="40"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>0</v>
       </c>
@@ -1660,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>2</v>
       </c>
@@ -1674,7 +1628,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
         <v>5</v>
       </c>
@@ -1688,14 +1642,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="40" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="40"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
         <v>19</v>
       </c>
@@ -1706,7 +1660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
         <v>19</v>
       </c>
@@ -1717,7 +1671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
         <v>31</v>
       </c>
@@ -1728,7 +1682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="40" t="s">
         <v>36</v>
       </c>
@@ -1739,7 +1693,7 @@
       <c r="G36" s="40"/>
       <c r="H36" s="40"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
         <v>39</v>
       </c>
@@ -1762,7 +1716,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -1773,7 +1727,7 @@
       </c>
       <c r="H38" s="16"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>39</v>
       </c>
@@ -1796,7 +1750,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
         <v>1</v>
       </c>
@@ -1819,24 +1773,24 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="40" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C44" s="40"/>
       <c r="D44" s="40"/>
       <c r="E44" s="40"/>
       <c r="F44" s="40"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>258</v>
+        <v>43</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>50</v>
@@ -1845,7 +1799,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>38</v>
       </c>
@@ -1856,7 +1810,7 @@
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
@@ -1864,7 +1818,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>258</v>
+        <v>43</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>49</v>
@@ -1873,7 +1827,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="11">
         <v>1</v>
       </c>
@@ -1888,24 +1842,24 @@
       </c>
       <c r="F48" s="11"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="40" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C52" s="40"/>
       <c r="D52" s="40"/>
       <c r="E52" s="40"/>
       <c r="F52" s="40"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>258</v>
+        <v>43</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>50</v>
@@ -1914,7 +1868,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="16" t="s">
         <v>38</v>
       </c>
@@ -1925,7 +1879,7 @@
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
         <v>37</v>
       </c>
@@ -1933,7 +1887,7 @@
         <v>40</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>258</v>
+        <v>43</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>49</v>
@@ -1942,7 +1896,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="11">
         <v>1</v>
       </c>
@@ -1978,29 +1932,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J85"/>
   <sheetViews>
-    <sheetView topLeftCell="C67" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="25.86328125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="32.3984375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="38.265625" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" width="36.3984375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="30.59765625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="35.86328125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.265625" collapsed="true"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="36.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:9" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="43" t="s">
         <v>54</v>
       </c>
@@ -2012,7 +1966,7 @@
       <c r="H4" s="43"/>
       <c r="I4" s="43"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>57</v>
       </c>
@@ -2032,7 +1986,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>0</v>
       </c>
@@ -2050,16 +2004,16 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C7" s="45" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="46"/>
       <c r="G7" s="14" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H7" s="45" t="s">
         <v>55</v>
@@ -2068,16 +2022,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C8" s="45" t="s">
         <v>56</v>
       </c>
       <c r="D8" s="46"/>
       <c r="G8" s="14" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="H8" s="45" t="s">
         <v>56</v>
@@ -2086,17 +2040,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="50" t="s">
         <v>62</v>
       </c>
       <c r="C11" s="50"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>0</v>
       </c>
@@ -2104,7 +2058,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>2</v>
       </c>
@@ -2112,7 +2066,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>5</v>
       </c>
@@ -2120,7 +2074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="41" t="s">
         <v>65</v>
       </c>
@@ -2130,7 +2084,7 @@
       <c r="F16" s="49"/>
       <c r="G16" s="42"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
         <v>66</v>
       </c>
@@ -2138,19 +2092,19 @@
         <v>37</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>211</v>
+        <v>82</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>245</v>
+        <v>84</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
         <v>66</v>
       </c>
@@ -2158,19 +2112,19 @@
         <v>37</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>213</v>
+        <v>68</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>214</v>
+        <v>67</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>246</v>
+        <v>69</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
         <v>59</v>
       </c>
@@ -2186,7 +2140,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>60</v>
       </c>
@@ -2202,30 +2156,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="25" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="26" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="2:9" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:9" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="43" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C30" s="43"/>
       <c r="D30" s="43"/>
       <c r="F30" s="41" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G30" s="49"/>
       <c r="H30" s="42"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
         <v>57</v>
       </c>
@@ -2245,7 +2199,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
         <v>0</v>
       </c>
@@ -2257,22 +2211,22 @@
         <v>0</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C33" s="45" t="s">
         <v>55</v>
       </c>
       <c r="D33" s="46"/>
       <c r="F33" s="14" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>55</v>
@@ -2283,16 +2237,16 @@
       <c r="I33" s="8"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C34" s="45" t="s">
         <v>56</v>
       </c>
       <c r="D34" s="46"/>
       <c r="F34" s="14" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>56</v>
@@ -2303,21 +2257,21 @@
       <c r="I34" s="8"/>
       <c r="J34" s="9"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="47" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C38" s="48"/>
       <c r="F38" s="4"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>0</v>
       </c>
@@ -2328,18 +2282,18 @@
       <c r="G39" s="7"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
         <v>5</v>
       </c>
@@ -2350,9 +2304,9 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="40" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C43" s="40"/>
       <c r="D43" s="40"/>
@@ -2362,7 +2316,7 @@
       <c r="H43" s="40"/>
       <c r="I43" s="40"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
         <v>66</v>
       </c>
@@ -2370,25 +2324,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>211</v>
+        <v>82</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>227</v>
+        <v>86</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>229</v>
+        <v>87</v>
       </c>
       <c r="I44" s="16" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>66</v>
       </c>
@@ -2396,26 +2350,26 @@
         <v>37</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>213</v>
+        <v>68</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>214</v>
+        <v>67</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>226</v>
+        <v>91</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="I45" s="16" t="s">
-        <v>232</v>
+        <v>89</v>
       </c>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="11" t="s">
         <v>59</v>
       </c>
@@ -2433,7 +2387,7 @@
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="11" t="s">
         <v>60</v>
       </c>
@@ -2455,22 +2409,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="49" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="50" spans="2:7" s="5" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="2:7" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="52" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="40" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C52" s="40"/>
       <c r="D52" s="40"/>
     </row>
-    <row r="53" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>57</v>
       </c>
@@ -2481,20 +2435,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>55</v>
@@ -2503,9 +2457,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="14" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>56</v>
@@ -2514,19 +2468,19 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="20"/>
       <c r="C57" s="21"/>
       <c r="D57" s="21"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="40" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C58" s="40"/>
       <c r="D58" s="19"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="16" t="s">
         <v>0</v>
       </c>
@@ -2535,16 +2489,16 @@
       </c>
       <c r="D59" s="22"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
         <v>5</v>
       </c>
@@ -2553,9 +2507,9 @@
       </c>
       <c r="D61" s="6"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="40" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C64" s="40"/>
       <c r="D64" s="40"/>
@@ -2563,7 +2517,7 @@
       <c r="F64" s="40"/>
       <c r="G64" s="40"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="16" t="s">
         <v>66</v>
       </c>
@@ -2571,19 +2525,19 @@
         <v>37</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>211</v>
+        <v>82</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>230</v>
+        <v>88</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="16" t="s">
         <v>66</v>
       </c>
@@ -2591,19 +2545,19 @@
         <v>37</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>213</v>
+        <v>68</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>214</v>
+        <v>67</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>232</v>
+        <v>89</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="11" t="s">
         <v>60</v>
       </c>
@@ -2619,14 +2573,14 @@
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="40" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C70" s="40"/>
       <c r="D70" s="40"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="16" t="s">
         <v>57</v>
       </c>
@@ -2637,20 +2591,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>55</v>
@@ -2659,7 +2613,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="16" t="s">
         <v>5</v>
       </c>
@@ -2670,14 +2624,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="40" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C76" s="40"/>
       <c r="D76" s="19"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="16" t="s">
         <v>0</v>
       </c>
@@ -2686,16 +2640,16 @@
       </c>
       <c r="D77" s="6"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D78" s="6"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="16" t="s">
         <v>5</v>
       </c>
@@ -2704,9 +2658,9 @@
       </c>
       <c r="D79" s="6"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="40" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C82" s="40"/>
       <c r="D82" s="40"/>
@@ -2715,7 +2669,7 @@
       <c r="G82" s="40"/>
       <c r="H82" s="23"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="16" t="s">
         <v>66</v>
       </c>
@@ -2723,19 +2677,19 @@
         <v>37</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>223</v>
+        <v>103</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>229</v>
+        <v>87</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="16" t="s">
         <v>66</v>
       </c>
@@ -2743,19 +2697,19 @@
         <v>37</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="11" t="s">
         <v>60</v>
       </c>
@@ -2805,37 +2759,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:L176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="47.3984375" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="25.59765625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="32.73046875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="40.3984375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="44.0" collapsed="true"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="44" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="53" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C4" s="54"/>
       <c r="F4" s="52" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="G4" s="52"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="31" t="s">
         <v>0</v>
       </c>
@@ -2849,26 +2803,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="33" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="F6" s="31" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F7" s="31" t="s">
         <v>5</v>
@@ -2877,41 +2831,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="26"/>
     </row>
-    <row r="10" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="53" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C10" s="54"/>
     </row>
-    <row r="11" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="23">
         <v>1</v>
       </c>
@@ -2919,34 +2873,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="26"/>
     </row>
-    <row r="15" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="26"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="53" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C17" s="54"/>
       <c r="F17" s="53" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="G17" s="54"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="F18" s="31" t="s">
         <v>0</v>
@@ -2955,26 +2909,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="F19" s="31" t="s">
         <v>2</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F20" s="31" t="s">
         <v>5</v>
@@ -2983,52 +2937,52 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="31" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C24" s="52"/>
       <c r="D24" s="52"/>
       <c r="E24" s="52"/>
     </row>
-    <row r="25" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="23">
         <v>1</v>
       </c>
@@ -3042,80 +2996,80 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="29" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="51" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C33" s="51"/>
       <c r="D33" s="51"/>
       <c r="F33" s="25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="23" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="23" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="40" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="41" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C41" s="52"/>
     </row>
-    <row r="42" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="31" t="s">
         <v>0</v>
       </c>
@@ -3123,15 +3077,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="31" t="s">
         <v>5</v>
       </c>
@@ -3139,11 +3093,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="46" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="47" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="52" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="C47" s="52"/>
       <c r="D47" s="52"/>
@@ -3152,53 +3106,53 @@
       <c r="G47" s="52"/>
       <c r="H47" s="52"/>
     </row>
-    <row r="48" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>239</v>
+        <v>185</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>240</v>
+        <v>187</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>234</v>
+        <v>188</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="H48" s="32" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>242</v>
+        <v>179</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>236</v>
+        <v>180</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="G49" s="32" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="H49" s="32" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="23">
         <v>1</v>
       </c>
@@ -3219,20 +3173,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="55" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="51" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C57" s="51"/>
       <c r="D57" s="51"/>
@@ -3240,7 +3194,7 @@
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="31" t="s">
         <v>0</v>
       </c>
@@ -3248,66 +3202,66 @@
         <v>1</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="31" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="52" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="C63" s="52"/>
     </row>
-    <row r="64" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="31" t="s">
         <v>0</v>
       </c>
@@ -3315,15 +3269,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="31" t="s">
         <v>5</v>
       </c>
@@ -3331,10 +3285,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="68" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="52" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="C68" s="52"/>
       <c r="D68" s="52"/>
@@ -3343,53 +3297,53 @@
       <c r="G68" s="52"/>
       <c r="H68" s="52"/>
     </row>
-    <row r="69" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>239</v>
+        <v>185</v>
       </c>
       <c r="D69" s="32" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="E69" s="32" t="s">
-        <v>240</v>
+        <v>187</v>
       </c>
       <c r="F69" s="32" t="s">
-        <v>234</v>
+        <v>188</v>
       </c>
       <c r="G69" s="32" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="H69" s="32" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>242</v>
+        <v>179</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>236</v>
+        <v>180</v>
       </c>
       <c r="E70" s="32" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
       <c r="F70" s="32" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="G70" s="32" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="H70" s="32" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="23">
         <v>1</v>
       </c>
@@ -3412,223 +3366,223 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="51" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C74" s="51"/>
       <c r="D74" s="51"/>
       <c r="F74" s="51" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="G74" s="51"/>
       <c r="H74" s="51"/>
     </row>
-    <row r="75" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="31" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="D75" s="33" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F75" s="31" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G75" s="33" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="H75" s="33" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="33" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C76" s="24"/>
       <c r="D76" s="24" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="F76" s="31" t="s">
         <v>2</v>
       </c>
       <c r="G76" s="24"/>
       <c r="H76" s="24" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="33" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C77" s="24"/>
       <c r="D77" s="24" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F77" s="31" t="s">
         <v>5</v>
       </c>
       <c r="G77" s="24"/>
       <c r="H77" s="24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="33" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C78" s="24"/>
       <c r="D78" s="24" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F78" s="31" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="G78" s="24"/>
       <c r="H78" s="24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="33" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C79" s="24"/>
       <c r="D79" s="24" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="F79" s="31" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="G79" s="24"/>
       <c r="H79" s="24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="33" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C80" s="24"/>
       <c r="D80" s="24" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="F80" s="31" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="G80" s="24"/>
       <c r="H80" s="24" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="31" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C81" s="24"/>
       <c r="D81" s="24" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="F81" s="33" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="G81" s="24"/>
       <c r="H81" s="24" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="31" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C82" s="24"/>
       <c r="D82" s="24" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F82" s="33" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="G82" s="24"/>
       <c r="H82" s="24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="31" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="C83" s="24"/>
       <c r="D83" s="24" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F83" s="33" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="G83" s="24"/>
       <c r="H83" s="24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="31" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C84" s="24"/>
       <c r="D84" s="24" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="F84" s="33" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="G84" s="24"/>
       <c r="H84" s="24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="31" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="C85" s="24"/>
       <c r="D85" s="24" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="F85" s="33" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="G85" s="24"/>
       <c r="H85" s="24" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="28"/>
       <c r="F86" s="28"/>
     </row>
-    <row r="87" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="52" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="C87" s="52"/>
       <c r="F87" s="52" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="G87" s="52"/>
     </row>
-    <row r="88" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="31" t="s">
         <v>0</v>
       </c>
@@ -3642,21 +3596,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="F89" s="31" t="s">
         <v>2</v>
       </c>
       <c r="G89" s="24" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="31" t="s">
         <v>5</v>
       </c>
@@ -3670,40 +3624,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="31" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="F91" s="31" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="G91" s="24" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="28"/>
       <c r="F92" s="28"/>
     </row>
-    <row r="93" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="52" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="C93" s="52"/>
       <c r="F93" s="52" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="G93" s="52"/>
     </row>
-    <row r="94" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="D94" s="27"/>
       <c r="E94" s="27"/>
@@ -3711,16 +3665,16 @@
         <v>37</v>
       </c>
       <c r="G94" s="32" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="H94" s="27"/>
     </row>
-    <row r="95" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C95" s="32" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="D95" s="27"/>
       <c r="E95" s="27"/>
@@ -3728,11 +3682,11 @@
         <v>37</v>
       </c>
       <c r="G95" s="32" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="H95" s="27"/>
     </row>
-    <row r="96" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="23">
         <v>1</v>
       </c>
@@ -3746,111 +3700,111 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="28"/>
       <c r="F97" s="6"/>
       <c r="G97" s="26"/>
       <c r="H97" s="26"/>
     </row>
-    <row r="98" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="28"/>
       <c r="F98" s="6"/>
       <c r="G98" s="26"/>
       <c r="H98" s="26"/>
     </row>
-    <row r="99" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="51" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C101" s="51"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="38" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C102" s="39" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="33" t="s">
-        <v>257</v>
+        <v>137</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="33" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="33" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="33" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="33" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
     </row>
-    <row r="109" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B109" s="52" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="C109" s="52"/>
     </row>
-    <row r="110" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B110" s="31" t="s">
         <v>0</v>
       </c>
@@ -3858,15 +3812,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B111" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B112" s="31" t="s">
         <v>5</v>
       </c>
@@ -3874,11 +3828,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="114" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B115" s="52" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="C115" s="52"/>
       <c r="D115" s="52"/>
@@ -3886,47 +3840,47 @@
       <c r="F115" s="52"/>
       <c r="G115" s="52"/>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B116" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="D116" s="32" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="E116" s="32" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="F116" s="32" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="G116" s="32" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.45">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B117" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="D117" s="32" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="E117" s="32" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="F117" s="32" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="G117" s="32" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.45">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B118" s="23">
         <v>1</v>
       </c>
@@ -3946,21 +3900,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
     </row>
-    <row r="120" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="121" spans="2:12" s="5" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="120" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="2:12" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="29" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="122" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="123" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="122" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B123" s="51" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="C123" s="51"/>
       <c r="D123" s="51"/>
@@ -3973,84 +3927,84 @@
       <c r="K123" s="51"/>
       <c r="L123" s="51"/>
     </row>
-    <row r="124" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B124" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C124" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D124" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E124" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="F124" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="G124" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="H124" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="I124" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="J124" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="K124" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="L124" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C125" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="D125" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="E125" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="F125" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="G125" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="H125" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="I125" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C124" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="D124" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E124" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="F124" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="G124" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="H124" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="I124" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="J124" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="K124" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="L124" s="31" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="125" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B125" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C125" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="D125" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="E125" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="F125" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="G125" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="H125" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="I125" s="24" t="s">
-        <v>115</v>
-      </c>
       <c r="J125" s="24" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K125" s="24" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="L125" s="24" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="127" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="128" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="52" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="C128" s="52"/>
     </row>
-    <row r="129" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B129" s="31" t="s">
         <v>0</v>
       </c>
@@ -4058,15 +4012,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B130" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="131" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B131" s="31" t="s">
         <v>5</v>
       </c>
@@ -4074,11 +4028,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="133" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="134" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B134" s="52" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="C134" s="52"/>
       <c r="D134" s="52"/>
@@ -4086,47 +4040,47 @@
       <c r="F134" s="52"/>
       <c r="G134" s="52"/>
     </row>
-    <row r="135" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B135" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="D135" s="32" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="E135" s="32" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="F135" s="32" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G135" s="32" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="136" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B136" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>213</v>
+        <v>68</v>
       </c>
       <c r="D136" s="32" t="s">
-        <v>214</v>
+        <v>67</v>
       </c>
       <c r="E136" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F136" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="G136" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="F136" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="G136" s="32" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="137" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="137" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B137" s="23">
         <v>1</v>
       </c>
@@ -4144,20 +4098,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="139" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="140" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="141" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="142" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B144" s="51" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C144" s="51"/>
       <c r="D144" s="51"/>
       <c r="E144" s="51"/>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145" s="31" t="s">
         <v>0</v>
       </c>
@@ -4165,69 +4119,69 @@
         <v>1</v>
       </c>
       <c r="D145" s="33" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E145" s="31" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.45">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B146" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C146" s="24" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D146" s="24" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E146" s="24" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C147" s="24" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D147" s="24" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="E147" s="24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B148" s="31" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C148" s="24" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="D148" s="24" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E148" s="24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B149" s="6"/>
       <c r="C149" s="26"/>
       <c r="D149" s="26"/>
       <c r="E149" s="26"/>
     </row>
-    <row r="150" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B150" s="52" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="C150" s="52"/>
       <c r="D150" s="26"/>
       <c r="E150" s="26"/>
     </row>
-    <row r="151" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B151" s="31" t="s">
         <v>0</v>
       </c>
@@ -4237,17 +4191,17 @@
       <c r="D151" s="26"/>
       <c r="E151" s="26"/>
     </row>
-    <row r="152" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B152" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C152" s="24" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="D152" s="26"/>
       <c r="E152" s="26"/>
     </row>
-    <row r="153" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B153" s="31" t="s">
         <v>5</v>
       </c>
@@ -4257,49 +4211,49 @@
       <c r="D153" s="26"/>
       <c r="E153" s="26"/>
     </row>
-    <row r="154" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B154" s="6"/>
       <c r="C154" s="26"/>
       <c r="D154" s="26"/>
       <c r="E154" s="26"/>
     </row>
-    <row r="155" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B155" s="52" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="C155" s="52"/>
       <c r="D155" s="52"/>
       <c r="E155" s="52"/>
     </row>
-    <row r="156" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B156" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C156" s="32" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="D156" s="32" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="E156" s="32" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B157" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C157" s="32" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="D157" s="32" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="E157" s="32" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B158" s="23">
         <v>1</v>
       </c>
@@ -4313,27 +4267,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B159" s="6"/>
       <c r="C159" s="26"/>
       <c r="D159" s="26"/>
       <c r="E159" s="26"/>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B161" s="51" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="C161" s="51"/>
       <c r="D161" s="51"/>
       <c r="E161" s="51"/>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B162" s="31" t="s">
         <v>0</v>
       </c>
@@ -4341,63 +4295,63 @@
         <v>1</v>
       </c>
       <c r="D162" s="31" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E162" s="31" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.45">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B163" s="33" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C163" s="24" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D163" s="24" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E163" s="24" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B164" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C164" s="24" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D164" s="24" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="E164" s="24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B165" s="33" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C165" s="24" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="D165" s="24" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E165" s="24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B168" s="52" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="C168" s="52"/>
       <c r="D168" s="26"/>
       <c r="E168" s="26"/>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B169" s="31" t="s">
         <v>0</v>
       </c>
@@ -4407,17 +4361,17 @@
       <c r="D169" s="26"/>
       <c r="E169" s="26"/>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B170" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C170" s="24" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="D170" s="26"/>
       <c r="E170" s="26"/>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B171" s="31" t="s">
         <v>5</v>
       </c>
@@ -4427,49 +4381,49 @@
       <c r="D171" s="26"/>
       <c r="E171" s="26"/>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B172" s="6"/>
       <c r="C172" s="26"/>
       <c r="D172" s="26"/>
       <c r="E172" s="26"/>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B173" s="52" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="C173" s="52"/>
       <c r="D173" s="52"/>
       <c r="E173" s="52"/>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B174" s="36" t="s">
         <v>37</v>
       </c>
       <c r="C174" s="37" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="D174" s="37" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="E174" s="37" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.45">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B175" s="36" t="s">
         <v>37</v>
       </c>
       <c r="C175" s="37" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="D175" s="37" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="E175" s="37" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.45">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B176" s="34">
         <v>1</v>
       </c>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SPR_model_naming_verification.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SPR_model_naming_verification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\openL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC8E328-68B1-426E-9073-4433000642C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0749D389-B2E4-4436-BDB8-30E6BAF38082}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="143" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" tabRatio="143" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -636,27 +636,15 @@
     <t>_res_.$Step2["aaa"]</t>
   </si>
   <si>
-    <t>_res_.$Step2["tiest"]:Integer</t>
-  </si>
-  <si>
     <t>_res_.$Step2["aaa"]:Integer</t>
   </si>
   <si>
-    <t>_res_.$Step2["asutarisuku"]:Integer</t>
-  </si>
-  <si>
     <t>_res_.$Step2["asutarisuku"]</t>
   </si>
   <si>
-    <t>_res_.$Step2["TestYYY"]:Integer</t>
-  </si>
-  <si>
     <t>_res_.$Step2["TestYYY"]</t>
   </si>
   <si>
-    <t>_res_.$Step2["Yin_Shua_Zhong_De_Xing_Hao_"]:Integer</t>
-  </si>
-  <si>
     <t>_res_.$Step2["Yin_Shua_Zhong_De_Xing_Hao_"]</t>
   </si>
   <si>
@@ -757,6 +745,18 @@
   </si>
   <si>
     <t>Result0</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["тест"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["アスタリスク"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["TestЫЫЫ"]:Integer</t>
+  </si>
+  <si>
+    <t>_res_.$Step2["印刷中的星号"]:Integer</t>
   </si>
 </sst>
 </file>
@@ -1393,27 +1393,27 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.86328125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.59765625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.265625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="32" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.86328125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.73046875" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="24" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.73046875" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" s="5" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="2:10" s="5" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" s="5" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B5" s="41" t="s">
         <v>7</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B9" s="11" t="s">
         <v>14</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B10" s="11" t="s">
         <v>16</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B11" s="11" t="s">
         <v>46</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B13" s="40" t="s">
         <v>27</v>
       </c>
@@ -1511,7 +1511,7 @@
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B14" s="16" t="s">
         <v>0</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B15" s="14" t="s">
         <v>108</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B16" s="14" t="s">
         <v>109</v>
       </c>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="16" t="s">
         <v>44</v>
       </c>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="14" t="s">
         <v>110</v>
       </c>
@@ -1584,13 +1584,13 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="G20" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="40" t="s">
         <v>78</v>
       </c>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="G22" s="40"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="16" t="s">
         <v>0</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="16" t="s">
         <v>2</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="16" t="s">
         <v>5</v>
       </c>
@@ -1642,14 +1642,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" s="40" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="40"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" s="16" t="s">
         <v>19</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" s="16" t="s">
         <v>19</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B33" s="11" t="s">
         <v>31</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B36" s="40" t="s">
         <v>36</v>
       </c>
@@ -1693,7 +1693,7 @@
       <c r="G36" s="40"/>
       <c r="H36" s="40"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B37" s="16" t="s">
         <v>39</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="H38" s="16"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B39" s="16" t="s">
         <v>39</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B40" s="11">
         <v>1</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B44" s="40" t="s">
         <v>81</v>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="E44" s="40"/>
       <c r="F44" s="40"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B45" s="16" t="s">
         <v>37</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B46" s="16" t="s">
         <v>38</v>
       </c>
@@ -1810,7 +1810,7 @@
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B48" s="11">
         <v>1</v>
       </c>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="F48" s="11"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B52" s="40" t="s">
         <v>80</v>
       </c>
@@ -1851,7 +1851,7 @@
       <c r="E52" s="40"/>
       <c r="F52" s="40"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B53" s="16" t="s">
         <v>37</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B54" s="16" t="s">
         <v>38</v>
       </c>
@@ -1879,7 +1879,7 @@
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B55" s="16" t="s">
         <v>37</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B56" s="11">
         <v>1</v>
       </c>
@@ -1936,25 +1936,25 @@
       <selection activeCell="B52" sqref="B52:D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.86328125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="41" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="36.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.3984375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="38.265625" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="36.3984375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.59765625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="35.86328125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.265625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="43" t="s">
         <v>54</v>
       </c>
@@ -1966,7 +1966,7 @@
       <c r="H4" s="43"/>
       <c r="I4" s="43"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="16" t="s">
         <v>57</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="16" t="s">
         <v>0</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="14" t="s">
         <v>112</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="14" t="s">
         <v>113</v>
       </c>
@@ -2040,17 +2040,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
         <v>62</v>
       </c>
       <c r="C11" s="50"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12" s="16" t="s">
         <v>0</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13" s="11" t="s">
         <v>2</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14" s="11" t="s">
         <v>5</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B16" s="41" t="s">
         <v>65</v>
       </c>
@@ -2084,7 +2084,7 @@
       <c r="F16" s="49"/>
       <c r="G16" s="42"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" s="16" t="s">
         <v>66</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" s="16" t="s">
         <v>66</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" s="11" t="s">
         <v>59</v>
       </c>
@@ -2140,7 +2140,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" s="11" t="s">
         <v>60</v>
       </c>
@@ -2156,17 +2156,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:9" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="25" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="2:9" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B30" s="43" t="s">
         <v>71</v>
       </c>
@@ -2179,7 +2179,7 @@
       <c r="H30" s="42"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B31" s="16" t="s">
         <v>57</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B32" s="16" t="s">
         <v>0</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B33" s="14" t="s">
         <v>112</v>
       </c>
@@ -2237,7 +2237,7 @@
       <c r="I33" s="8"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B34" s="14" t="s">
         <v>113</v>
       </c>
@@ -2257,12 +2257,12 @@
       <c r="I34" s="8"/>
       <c r="J34" s="9"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B38" s="47" t="s">
         <v>73</v>
       </c>
@@ -2271,7 +2271,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B39" s="16" t="s">
         <v>0</v>
       </c>
@@ -2282,7 +2282,7 @@
       <c r="G39" s="7"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B40" s="16" t="s">
         <v>2</v>
       </c>
@@ -2293,7 +2293,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B41" s="16" t="s">
         <v>5</v>
       </c>
@@ -2304,7 +2304,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B43" s="40" t="s">
         <v>75</v>
       </c>
@@ -2316,7 +2316,7 @@
       <c r="H43" s="40"/>
       <c r="I43" s="40"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B44" s="16" t="s">
         <v>66</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B45" s="16" t="s">
         <v>66</v>
       </c>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B46" s="11" t="s">
         <v>59</v>
       </c>
@@ -2387,7 +2387,7 @@
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B47" s="11" t="s">
         <v>60</v>
       </c>
@@ -2409,22 +2409,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="2:7" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="49" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="50" spans="2:7" s="5" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="52" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B52" s="40" t="s">
         <v>95</v>
       </c>
       <c r="C52" s="40"/>
       <c r="D52" s="40"/>
     </row>
-    <row r="53" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B53" s="16" t="s">
         <v>57</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B54" s="16" t="s">
         <v>0</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B55" s="14" t="s">
         <v>112</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B56" s="14" t="s">
         <v>113</v>
       </c>
@@ -2468,19 +2468,19 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B57" s="20"/>
       <c r="C57" s="21"/>
       <c r="D57" s="21"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B58" s="40" t="s">
         <v>97</v>
       </c>
       <c r="C58" s="40"/>
       <c r="D58" s="19"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B59" s="16" t="s">
         <v>0</v>
       </c>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D59" s="22"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B60" s="16" t="s">
         <v>2</v>
       </c>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B61" s="16" t="s">
         <v>5</v>
       </c>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="D61" s="6"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B64" s="40" t="s">
         <v>100</v>
       </c>
@@ -2517,7 +2517,7 @@
       <c r="F64" s="40"/>
       <c r="G64" s="40"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B65" s="16" t="s">
         <v>66</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B66" s="16" t="s">
         <v>66</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B67" s="11" t="s">
         <v>60</v>
       </c>
@@ -2573,14 +2573,14 @@
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B70" s="40" t="s">
         <v>98</v>
       </c>
       <c r="C70" s="40"/>
       <c r="D70" s="40"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B71" s="16" t="s">
         <v>57</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B72" s="16" t="s">
         <v>0</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B73" s="14" t="s">
         <v>112</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B74" s="16" t="s">
         <v>5</v>
       </c>
@@ -2624,14 +2624,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B76" s="40" t="s">
         <v>99</v>
       </c>
       <c r="C76" s="40"/>
       <c r="D76" s="19"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B77" s="16" t="s">
         <v>0</v>
       </c>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="D77" s="6"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B78" s="16" t="s">
         <v>2</v>
       </c>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="D78" s="6"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B79" s="16" t="s">
         <v>5</v>
       </c>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="D79" s="6"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B82" s="40" t="s">
         <v>102</v>
       </c>
@@ -2669,7 +2669,7 @@
       <c r="G82" s="40"/>
       <c r="H82" s="23"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B83" s="16" t="s">
         <v>66</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B84" s="16" t="s">
         <v>66</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B85" s="11" t="s">
         <v>60</v>
       </c>
@@ -2759,27 +2759,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:L176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="47.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="47.3984375" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="25.59765625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.73046875" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="28" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.3984375" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="44" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="53" t="s">
         <v>117</v>
       </c>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="G4" s="52"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="31" t="s">
         <v>0</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="33" t="s">
         <v>118</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="31" t="s">
         <v>5</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="31" t="s">
         <v>121</v>
       </c>
@@ -2839,33 +2839,33 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B9" s="6"/>
       <c r="C9" s="26"/>
     </row>
-    <row r="10" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B10" s="53" t="s">
         <v>170</v>
       </c>
       <c r="C10" s="54"/>
     </row>
-    <row r="11" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B11" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B12" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B13" s="23">
         <v>1</v>
       </c>
@@ -2873,19 +2873,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B14" s="6"/>
       <c r="C14" s="26"/>
     </row>
-    <row r="15" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B15" s="6"/>
       <c r="C15" s="26"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="53" t="s">
         <v>123</v>
       </c>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="G17" s="54"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="31" t="s">
         <v>0</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="31" t="s">
         <v>2</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="31" t="s">
         <v>5</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="31" t="s">
         <v>121</v>
       </c>
@@ -2945,8 +2945,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B24" s="52" t="s">
         <v>171</v>
       </c>
@@ -2954,7 +2954,7 @@
       <c r="D24" s="52"/>
       <c r="E24" s="52"/>
     </row>
-    <row r="25" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B25" s="31" t="s">
         <v>37</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B26" s="31" t="s">
         <v>37</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B27" s="23">
         <v>1</v>
       </c>
@@ -2996,15 +2996,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B31" s="10" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B33" s="51" t="s">
         <v>126</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B34" s="23" t="s">
         <v>127</v>
       </c>
@@ -3025,10 +3025,10 @@
         <v>128</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B35" s="23" t="s">
         <v>2</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B36" s="23" t="s">
         <v>5</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B37" s="23" t="s">
         <v>121</v>
       </c>
@@ -3061,15 +3061,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="40" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="41" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B41" s="52" t="s">
         <v>168</v>
       </c>
       <c r="C41" s="52"/>
     </row>
-    <row r="42" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B42" s="31" t="s">
         <v>0</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B43" s="31" t="s">
         <v>2</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B44" s="31" t="s">
         <v>5</v>
       </c>
@@ -3093,9 +3093,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="46" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="47" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B47" s="52" t="s">
         <v>197</v>
       </c>
@@ -3106,7 +3106,7 @@
       <c r="G47" s="52"/>
       <c r="H47" s="52"/>
     </row>
-    <row r="48" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B48" s="31" t="s">
         <v>37</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B49" s="31" t="s">
         <v>37</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="50" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B50" s="23">
         <v>1</v>
       </c>
@@ -3173,18 +3173,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="55" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B55" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B57" s="51" t="s">
         <v>132</v>
       </c>
@@ -3194,7 +3194,7 @@
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B58" s="31" t="s">
         <v>0</v>
       </c>
@@ -3208,7 +3208,7 @@
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B59" s="31" t="s">
         <v>2</v>
       </c>
@@ -3222,7 +3222,7 @@
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B60" s="31" t="s">
         <v>5</v>
       </c>
@@ -3236,7 +3236,7 @@
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B61" s="31" t="s">
         <v>121</v>
       </c>
@@ -3250,18 +3250,18 @@
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.45">
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B63" s="52" t="s">
         <v>190</v>
       </c>
       <c r="C63" s="52"/>
     </row>
-    <row r="64" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B64" s="31" t="s">
         <v>0</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B65" s="31" t="s">
         <v>2</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="66" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B66" s="31" t="s">
         <v>5</v>
       </c>
@@ -3285,8 +3285,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="68" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B68" s="52" t="s">
         <v>196</v>
       </c>
@@ -3297,7 +3297,7 @@
       <c r="G68" s="52"/>
       <c r="H68" s="52"/>
     </row>
-    <row r="69" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B69" s="31" t="s">
         <v>37</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="70" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B70" s="31" t="s">
         <v>37</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="71" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B71" s="23">
         <v>1</v>
       </c>
@@ -3366,29 +3366,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.45">
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.45">
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B74" s="51" t="s">
         <v>142</v>
       </c>
       <c r="C74" s="51"/>
       <c r="D74" s="51"/>
       <c r="F74" s="51" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G74" s="51"/>
       <c r="H74" s="51"/>
     </row>
-    <row r="75" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B75" s="31" t="s">
         <v>143</v>
       </c>
@@ -3402,13 +3402,13 @@
         <v>143</v>
       </c>
       <c r="G75" s="33" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H75" s="33" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B76" s="33" t="s">
         <v>112</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="77" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B77" s="33" t="s">
         <v>113</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="78" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B78" s="33" t="s">
         <v>147</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="79" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B79" s="33" t="s">
         <v>149</v>
       </c>
@@ -3465,14 +3465,14 @@
         <v>150</v>
       </c>
       <c r="F79" s="31" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G79" s="24"/>
       <c r="H79" s="24" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="80" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B80" s="33" t="s">
         <v>151</v>
       </c>
@@ -3481,14 +3481,14 @@
         <v>152</v>
       </c>
       <c r="F80" s="31" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G80" s="24"/>
       <c r="H80" s="24" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B81" s="31" t="s">
         <v>153</v>
       </c>
@@ -3497,14 +3497,14 @@
         <v>146</v>
       </c>
       <c r="F81" s="33" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G81" s="24"/>
       <c r="H81" s="24" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="82" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B82" s="31" t="s">
         <v>154</v>
       </c>
@@ -3513,14 +3513,14 @@
         <v>129</v>
       </c>
       <c r="F82" s="33" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G82" s="24"/>
       <c r="H82" s="24" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="83" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B83" s="31" t="s">
         <v>155</v>
       </c>
@@ -3529,14 +3529,14 @@
         <v>148</v>
       </c>
       <c r="F83" s="33" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G83" s="24"/>
       <c r="H83" s="24" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B84" s="31" t="s">
         <v>156</v>
       </c>
@@ -3545,14 +3545,14 @@
         <v>150</v>
       </c>
       <c r="F84" s="33" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G84" s="24"/>
       <c r="H84" s="24" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="85" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B85" s="31" t="s">
         <v>157</v>
       </c>
@@ -3561,28 +3561,28 @@
         <v>152</v>
       </c>
       <c r="F85" s="33" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G85" s="24"/>
       <c r="H85" s="24" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="86" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B86" s="28"/>
       <c r="F86" s="28"/>
     </row>
-    <row r="87" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B87" s="52" t="s">
         <v>193</v>
       </c>
       <c r="C87" s="52"/>
       <c r="F87" s="52" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G87" s="52"/>
     </row>
-    <row r="88" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B88" s="31" t="s">
         <v>0</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B89" s="31" t="s">
         <v>2</v>
       </c>
@@ -3607,10 +3607,10 @@
         <v>2</v>
       </c>
       <c r="G89" s="24" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B90" s="31" t="s">
         <v>5</v>
       </c>
@@ -3624,35 +3624,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B91" s="31" t="s">
         <v>121</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F91" s="31" t="s">
         <v>121</v>
       </c>
       <c r="G91" s="24" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B92" s="28"/>
       <c r="F92" s="28"/>
     </row>
-    <row r="93" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B93" s="52" t="s">
         <v>195</v>
       </c>
       <c r="C93" s="52"/>
       <c r="F93" s="52" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G93" s="52"/>
     </row>
-    <row r="94" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B94" s="31" t="s">
         <v>37</v>
       </c>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="H94" s="27"/>
     </row>
-    <row r="95" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B95" s="31" t="s">
         <v>37</v>
       </c>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="H95" s="27"/>
     </row>
-    <row r="96" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B96" s="23">
         <v>1</v>
       </c>
@@ -3700,25 +3700,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B97" s="28"/>
       <c r="F97" s="6"/>
       <c r="G97" s="26"/>
       <c r="H97" s="26"/>
     </row>
-    <row r="98" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B98" s="28"/>
       <c r="F98" s="6"/>
       <c r="G98" s="26"/>
       <c r="H98" s="26"/>
     </row>
-    <row r="99" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B99" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="100" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B101" s="51" t="s">
         <v>134</v>
       </c>
@@ -3727,7 +3727,7 @@
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B102" s="38" t="s">
         <v>135</v>
       </c>
@@ -3738,7 +3738,7 @@
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B103" s="33" t="s">
         <v>137</v>
       </c>
@@ -3749,7 +3749,7 @@
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B104" s="33" t="s">
         <v>138</v>
       </c>
@@ -3760,7 +3760,7 @@
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B105" s="33" t="s">
         <v>139</v>
       </c>
@@ -3771,7 +3771,7 @@
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B106" s="33" t="s">
         <v>140</v>
       </c>
@@ -3782,7 +3782,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B107" s="33" t="s">
         <v>141</v>
       </c>
@@ -3793,18 +3793,18 @@
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.45">
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
     </row>
-    <row r="109" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B109" s="52" t="s">
         <v>199</v>
       </c>
       <c r="C109" s="52"/>
     </row>
-    <row r="110" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B110" s="31" t="s">
         <v>0</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B111" s="31" t="s">
         <v>2</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="112" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B112" s="31" t="s">
         <v>5</v>
       </c>
@@ -3828,9 +3828,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="114" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B115" s="52" t="s">
         <v>201</v>
       </c>
@@ -3840,27 +3840,27 @@
       <c r="F115" s="52"/>
       <c r="G115" s="52"/>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B116" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C116" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="D116" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="D116" s="32" t="s">
-        <v>205</v>
-      </c>
       <c r="E116" s="32" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="F116" s="32" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="G116" s="32" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B117" s="31" t="s">
         <v>37</v>
       </c>
@@ -3871,16 +3871,16 @@
         <v>203</v>
       </c>
       <c r="E117" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="F117" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="G117" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="F117" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="G117" s="32" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B118" s="23">
         <v>1</v>
       </c>
@@ -3900,19 +3900,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.45">
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
     </row>
-    <row r="120" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="2:12" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="121" spans="2:12" s="5" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B121" s="29" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="122" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="122" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="123" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B123" s="51" t="s">
         <v>158</v>
       </c>
@@ -3927,7 +3927,7 @@
       <c r="K123" s="51"/>
       <c r="L123" s="51"/>
     </row>
-    <row r="124" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B124" s="31" t="s">
         <v>143</v>
       </c>
@@ -3962,18 +3962,18 @@
         <v>157</v>
       </c>
     </row>
-    <row r="125" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B125" s="23" t="s">
         <v>159</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E125" s="24" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F125" s="24" t="s">
         <v>150</v>
@@ -3997,14 +3997,14 @@
         <v>152</v>
       </c>
     </row>
-    <row r="127" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="128" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B128" s="52" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C128" s="52"/>
     </row>
-    <row r="129" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B129" s="31" t="s">
         <v>0</v>
       </c>
@@ -4012,15 +4012,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B130" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="131" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B131" s="31" t="s">
         <v>5</v>
       </c>
@@ -4028,11 +4028,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="133" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="134" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B134" s="52" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C134" s="52"/>
       <c r="D134" s="52"/>
@@ -4040,7 +4040,7 @@
       <c r="F134" s="52"/>
       <c r="G134" s="52"/>
     </row>
-    <row r="135" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B135" s="31" t="s">
         <v>37</v>
       </c>
@@ -4054,13 +4054,13 @@
         <v>178</v>
       </c>
       <c r="F135" s="32" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G135" s="32" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="136" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B136" s="31" t="s">
         <v>37</v>
       </c>
@@ -4074,13 +4074,13 @@
         <v>175</v>
       </c>
       <c r="F136" s="32" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G136" s="32" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="137" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B137" s="23">
         <v>1</v>
       </c>
@@ -4098,12 +4098,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="139" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="140" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="141" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="142" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B144" s="51" t="s">
         <v>160</v>
       </c>
@@ -4111,7 +4111,7 @@
       <c r="D144" s="51"/>
       <c r="E144" s="51"/>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B145" s="31" t="s">
         <v>0</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B146" s="31" t="s">
         <v>2</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B147" s="31" t="s">
         <v>5</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B148" s="31" t="s">
         <v>121</v>
       </c>
@@ -4167,21 +4167,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="149" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B149" s="6"/>
       <c r="C149" s="26"/>
       <c r="D149" s="26"/>
       <c r="E149" s="26"/>
     </row>
-    <row r="150" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B150" s="52" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C150" s="52"/>
       <c r="D150" s="26"/>
       <c r="E150" s="26"/>
     </row>
-    <row r="151" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B151" s="31" t="s">
         <v>0</v>
       </c>
@@ -4191,17 +4191,17 @@
       <c r="D151" s="26"/>
       <c r="E151" s="26"/>
     </row>
-    <row r="152" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B152" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C152" s="24" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D152" s="26"/>
       <c r="E152" s="26"/>
     </row>
-    <row r="153" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B153" s="31" t="s">
         <v>5</v>
       </c>
@@ -4211,21 +4211,21 @@
       <c r="D153" s="26"/>
       <c r="E153" s="26"/>
     </row>
-    <row r="154" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B154" s="6"/>
       <c r="C154" s="26"/>
       <c r="D154" s="26"/>
       <c r="E154" s="26"/>
     </row>
-    <row r="155" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B155" s="52" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C155" s="52"/>
       <c r="D155" s="52"/>
       <c r="E155" s="52"/>
     </row>
-    <row r="156" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B156" s="31" t="s">
         <v>37</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="157" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B157" s="31" t="s">
         <v>37</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="158" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B158" s="23">
         <v>1</v>
       </c>
@@ -4267,19 +4267,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B159" s="6"/>
       <c r="C159" s="26"/>
       <c r="D159" s="26"/>
       <c r="E159" s="26"/>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B161" s="51" t="s">
         <v>163</v>
       </c>
@@ -4287,7 +4287,7 @@
       <c r="D161" s="51"/>
       <c r="E161" s="51"/>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B162" s="31" t="s">
         <v>0</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B163" s="33" t="s">
         <v>112</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B164" s="31" t="s">
         <v>5</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B165" s="33" t="s">
         <v>147</v>
       </c>
@@ -4343,15 +4343,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B168" s="52" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C168" s="52"/>
       <c r="D168" s="26"/>
       <c r="E168" s="26"/>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B169" s="31" t="s">
         <v>0</v>
       </c>
@@ -4361,17 +4361,17 @@
       <c r="D169" s="26"/>
       <c r="E169" s="26"/>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B170" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C170" s="24" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D170" s="26"/>
       <c r="E170" s="26"/>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B171" s="31" t="s">
         <v>5</v>
       </c>
@@ -4381,21 +4381,21 @@
       <c r="D171" s="26"/>
       <c r="E171" s="26"/>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B172" s="6"/>
       <c r="C172" s="26"/>
       <c r="D172" s="26"/>
       <c r="E172" s="26"/>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B173" s="52" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C173" s="52"/>
       <c r="D173" s="52"/>
       <c r="E173" s="52"/>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B174" s="36" t="s">
         <v>37</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B175" s="36" t="s">
         <v>37</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B176" s="34">
         <v>1</v>
       </c>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SPR_model_naming_verification.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SPR_model_naming_verification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berek\Desktop\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0749D389-B2E4-4436-BDB8-30E6BAF38082}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB989860-74DE-4F85-BAD5-39F3D39CBBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" tabRatio="143" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="143" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="247">
   <si>
     <t>Steps</t>
   </si>
@@ -757,16 +757,23 @@
   </si>
   <si>
     <t>_res_.$Step2["印刷中的星号"]:Integer</t>
+  </si>
+  <si>
+    <t>Test differentVersionAny differentVersionAnyTest2</t>
+  </si>
+  <si>
+    <t>Test differentVersion differentVersionTest2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="1" rgb="000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -803,7 +810,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.79998168889431442" rgb="9BBB59"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,7 +822,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.14999847407452621" rgb="FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,8 +938,8 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -992,6 +999,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -1002,17 +1015,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1387,33 +1394,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J56"/>
+  <dimension ref="B2:J68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.86328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.59765625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.265625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.86328125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30.73046875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.73046875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="21.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="5" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="2:10" s="5" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" s="5" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="41" t="s">
         <v>7</v>
       </c>
@@ -1426,7 +1433,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -1443,7 +1450,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
@@ -1460,7 +1467,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
@@ -1474,7 +1481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>14</v>
       </c>
@@ -1482,7 +1489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>16</v>
       </c>
@@ -1490,7 +1497,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>46</v>
       </c>
@@ -1498,7 +1505,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="40" t="s">
         <v>27</v>
       </c>
@@ -1511,7 +1518,7 @@
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>0</v>
       </c>
@@ -1534,7 +1541,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>108</v>
       </c>
@@ -1557,7 +1564,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>109</v>
       </c>
@@ -1566,7 +1573,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
         <v>44</v>
       </c>
@@ -1575,7 +1582,7 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>110</v>
       </c>
@@ -1584,13 +1591,13 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G20" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="40" t="s">
         <v>78</v>
       </c>
@@ -1600,7 +1607,7 @@
       </c>
       <c r="G22" s="40"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
         <v>0</v>
       </c>
@@ -1614,7 +1621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>2</v>
       </c>
@@ -1628,7 +1635,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
         <v>5</v>
       </c>
@@ -1642,14 +1649,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="40" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="40"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
         <v>19</v>
       </c>
@@ -1660,7 +1667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>19</v>
       </c>
@@ -1671,7 +1678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
         <v>31</v>
       </c>
@@ -1682,7 +1689,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="40" t="s">
         <v>36</v>
       </c>
@@ -1693,7 +1700,7 @@
       <c r="G36" s="40"/>
       <c r="H36" s="40"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>39</v>
       </c>
@@ -1716,7 +1723,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -1727,7 +1734,7 @@
       </c>
       <c r="H38" s="16"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="16" t="s">
         <v>39</v>
       </c>
@@ -1750,7 +1757,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="11">
         <v>1</v>
       </c>
@@ -1773,7 +1780,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="40" t="s">
         <v>81</v>
       </c>
@@ -1782,7 +1789,7 @@
       <c r="E44" s="40"/>
       <c r="F44" s="40"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="16" t="s">
         <v>37</v>
       </c>
@@ -1799,7 +1806,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="16" t="s">
         <v>38</v>
       </c>
@@ -1810,7 +1817,7 @@
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
@@ -1827,7 +1834,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="11">
         <v>1</v>
       </c>
@@ -1842,7 +1849,7 @@
       </c>
       <c r="F48" s="11"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="40" t="s">
         <v>80</v>
       </c>
@@ -1851,7 +1858,7 @@
       <c r="E52" s="40"/>
       <c r="F52" s="40"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="16" t="s">
         <v>37</v>
       </c>
@@ -1868,7 +1875,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="16" t="s">
         <v>38</v>
       </c>
@@ -1879,7 +1886,7 @@
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
         <v>37</v>
       </c>
@@ -1896,7 +1903,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="11">
         <v>1</v>
       </c>
@@ -1911,8 +1918,158 @@
       </c>
       <c r="F56" s="11"/>
     </row>
+    <row r="58">
+      <c r="B58" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+    </row>
+    <row r="59">
+      <c r="B59" t="s" s="16">
+        <v>66</v>
+      </c>
+      <c r="C59" t="s" s="16">
+        <v>37</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F59" t="s" s="16">
+        <v>90</v>
+      </c>
+      <c r="G59" t="s" s="16">
+        <v>86</v>
+      </c>
+      <c r="H59" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I59" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s" s="16">
+        <v>66</v>
+      </c>
+      <c r="C60" t="s" s="16">
+        <v>37</v>
+      </c>
+      <c r="D60" t="s" s="16">
+        <v>68</v>
+      </c>
+      <c r="E60" t="s" s="16">
+        <v>67</v>
+      </c>
+      <c r="F60" t="s" s="16">
+        <v>91</v>
+      </c>
+      <c r="G60" t="s" s="16">
+        <v>76</v>
+      </c>
+      <c r="H60" t="s" s="16">
+        <v>77</v>
+      </c>
+      <c r="I60" t="s" s="16">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" t="n" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="G61" t="n" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+    </row>
+    <row r="62"/>
+    <row r="64">
+      <c r="B64" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
+    </row>
+    <row r="65">
+      <c r="B65" t="s" s="16">
+        <v>66</v>
+      </c>
+      <c r="C65" t="s" s="16">
+        <v>37</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F65" t="s" s="16">
+        <v>84</v>
+      </c>
+      <c r="G65" t="s" s="16">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="s" s="16">
+        <v>66</v>
+      </c>
+      <c r="C66" t="s" s="16">
+        <v>37</v>
+      </c>
+      <c r="D66" t="s" s="16">
+        <v>68</v>
+      </c>
+      <c r="E66" t="s" s="16">
+        <v>67</v>
+      </c>
+      <c r="F66" t="s" s="16">
+        <v>69</v>
+      </c>
+      <c r="G66" t="s" s="16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="s" s="11">
+        <v>60</v>
+      </c>
+      <c r="C67" t="n" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" t="n" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="G67" t="n" s="11">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="68"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B36:H36"/>
     <mergeCell ref="B44:F44"/>
@@ -1923,6 +2080,8 @@
     <mergeCell ref="F13:J13"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="B64:G64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1936,37 +2095,37 @@
       <selection activeCell="B52" sqref="B52:D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.86328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.3984375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38.265625" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="36.3984375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.59765625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="35.86328125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.265625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="25.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="38.21875" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="36.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="35.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.21875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:9" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="43" t="s">
+    <row r="3" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="G4" s="43" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="G4" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="16" t="s">
         <v>57</v>
       </c>
@@ -1986,71 +2145,71 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="44"/>
+      <c r="D6" s="46"/>
       <c r="G6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="46" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="46"/>
+      <c r="D7" s="48"/>
       <c r="G7" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="48" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="46"/>
+      <c r="D8" s="48"/>
       <c r="G8" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="48" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="50" t="s">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="50"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C11" s="43"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
         <v>0</v>
       </c>
@@ -2058,7 +2217,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
         <v>2</v>
       </c>
@@ -2066,7 +2225,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>5</v>
       </c>
@@ -2074,17 +2233,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
       <c r="G16" s="42"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
         <v>66</v>
       </c>
@@ -2098,13 +2257,13 @@
         <v>83</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>66</v>
       </c>
@@ -2124,7 +2283,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>59</v>
       </c>
@@ -2140,46 +2299,31 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B20" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="11">
-        <v>1</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11">
-        <v>2</v>
-      </c>
-      <c r="G20" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="25" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="26" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="2:9" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:9" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B30" s="43" t="s">
+    <row r="28" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
       <c r="F30" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="49"/>
+      <c r="G30" s="44"/>
       <c r="H30" s="42"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
         <v>57</v>
       </c>
@@ -2199,14 +2343,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="44"/>
+      <c r="D32" s="46"/>
       <c r="F32" s="16" t="s">
         <v>0</v>
       </c>
@@ -2217,14 +2361,14 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="46"/>
+      <c r="D33" s="48"/>
       <c r="F33" s="14" t="s">
         <v>112</v>
       </c>
@@ -2237,14 +2381,14 @@
       <c r="I33" s="8"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="46"/>
+      <c r="D34" s="48"/>
       <c r="F34" s="14" t="s">
         <v>113</v>
       </c>
@@ -2257,21 +2401,21 @@
       <c r="I34" s="8"/>
       <c r="J34" s="9"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B38" s="47" t="s">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="48"/>
+      <c r="C38" s="50"/>
       <c r="F38" s="4"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="16" t="s">
         <v>0</v>
       </c>
@@ -2282,7 +2426,7 @@
       <c r="G39" s="7"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
         <v>2</v>
       </c>
@@ -2293,7 +2437,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="16" t="s">
         <v>5</v>
       </c>
@@ -2304,7 +2448,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="40" t="s">
         <v>75</v>
       </c>
@@ -2316,7 +2460,7 @@
       <c r="H43" s="40"/>
       <c r="I43" s="40"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="16" t="s">
         <v>66</v>
       </c>
@@ -2324,10 +2468,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F44" s="16" t="s">
         <v>90</v>
@@ -2342,7 +2486,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="16" t="s">
         <v>66</v>
       </c>
@@ -2369,62 +2513,45 @@
       </c>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B46" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="11">
-        <v>1</v>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B46" t="s" s="11">
+        <v>60</v>
+      </c>
+      <c r="C46" t="n" s="11">
+        <v>1.0</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
-      <c r="F46" s="11">
-        <v>2</v>
-      </c>
-      <c r="G46" s="11">
-        <v>3</v>
-      </c>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B47" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="11">
-        <v>1</v>
-      </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11">
-        <v>2</v>
-      </c>
-      <c r="G47" s="11">
-        <v>3</v>
-      </c>
-      <c r="H47" s="11">
-        <v>2</v>
-      </c>
-      <c r="I47" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="49" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="50" spans="2:7" s="5" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F46" t="n" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="G46" t="n" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="H46" t="n" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="I46" t="n" s="11">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="2:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="2:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="52" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="40" t="s">
         <v>95</v>
       </c>
       <c r="C52" s="40"/>
       <c r="D52" s="40"/>
     </row>
-    <row r="53" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="16" t="s">
         <v>57</v>
       </c>
@@ -2435,7 +2562,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="16" t="s">
         <v>0</v>
       </c>
@@ -2446,7 +2573,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>112</v>
       </c>
@@ -2457,7 +2584,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="14" t="s">
         <v>113</v>
       </c>
@@ -2468,19 +2595,19 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="20"/>
       <c r="C57" s="21"/>
       <c r="D57" s="21"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="40" t="s">
         <v>97</v>
       </c>
       <c r="C58" s="40"/>
       <c r="D58" s="19"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="16" t="s">
         <v>0</v>
       </c>
@@ -2489,7 +2616,7 @@
       </c>
       <c r="D59" s="22"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="16" t="s">
         <v>2</v>
       </c>
@@ -2498,7 +2625,7 @@
       </c>
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="16" t="s">
         <v>5</v>
       </c>
@@ -2507,7 +2634,7 @@
       </c>
       <c r="D61" s="6"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="40" t="s">
         <v>100</v>
       </c>
@@ -2517,7 +2644,7 @@
       <c r="F64" s="40"/>
       <c r="G64" s="40"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="16" t="s">
         <v>66</v>
       </c>
@@ -2531,13 +2658,13 @@
         <v>83</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="16" t="s">
         <v>66</v>
       </c>
@@ -2557,7 +2684,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="11" t="s">
         <v>60</v>
       </c>
@@ -2573,14 +2700,14 @@
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="40" t="s">
         <v>98</v>
       </c>
       <c r="C70" s="40"/>
       <c r="D70" s="40"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="16" t="s">
         <v>57</v>
       </c>
@@ -2591,7 +2718,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="16" t="s">
         <v>0</v>
       </c>
@@ -2602,7 +2729,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="14" t="s">
         <v>112</v>
       </c>
@@ -2613,7 +2740,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="16" t="s">
         <v>5</v>
       </c>
@@ -2624,14 +2751,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="40" t="s">
         <v>99</v>
       </c>
       <c r="C76" s="40"/>
       <c r="D76" s="19"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="16" t="s">
         <v>0</v>
       </c>
@@ -2640,7 +2767,7 @@
       </c>
       <c r="D77" s="6"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="16" t="s">
         <v>2</v>
       </c>
@@ -2649,7 +2776,7 @@
       </c>
       <c r="D78" s="6"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="16" t="s">
         <v>5</v>
       </c>
@@ -2658,7 +2785,7 @@
       </c>
       <c r="D79" s="6"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" s="40" t="s">
         <v>102</v>
       </c>
@@ -2669,7 +2796,7 @@
       <c r="G82" s="40"/>
       <c r="H82" s="23"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" s="16" t="s">
         <v>66</v>
       </c>
@@ -2683,13 +2810,13 @@
         <v>105</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B84" s="16" t="s">
         <v>66</v>
       </c>
@@ -2706,10 +2833,10 @@
         <v>77</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B85" s="11" t="s">
         <v>60</v>
       </c>
@@ -2727,15 +2854,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B43:I43"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H7:I7"/>
@@ -2750,6 +2868,15 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B43:I43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2763,33 +2890,33 @@
       <selection activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="47.3984375" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="25.59765625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.73046875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.3984375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="44" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="47.44140625" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="44.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="53" t="s">
         <v>117</v>
       </c>
       <c r="C4" s="54"/>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="G4" s="52"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="G4" s="51"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="31" t="s">
         <v>0</v>
       </c>
@@ -2803,7 +2930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="33" t="s">
         <v>118</v>
       </c>
@@ -2817,7 +2944,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="31" t="s">
         <v>5</v>
       </c>
@@ -2831,7 +2958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
         <v>121</v>
       </c>
@@ -2839,17 +2966,17 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="26"/>
     </row>
-    <row r="10" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="53" t="s">
         <v>170</v>
       </c>
       <c r="C10" s="54"/>
     </row>
-    <row r="11" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="31" t="s">
         <v>37</v>
       </c>
@@ -2857,7 +2984,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="12" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
         <v>37</v>
       </c>
@@ -2865,7 +2992,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="23">
         <v>1</v>
       </c>
@@ -2873,19 +3000,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
       <c r="C14" s="26"/>
     </row>
-    <row r="15" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
       <c r="C15" s="26"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="53" t="s">
         <v>123</v>
       </c>
@@ -2895,7 +3022,7 @@
       </c>
       <c r="G17" s="54"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="31" t="s">
         <v>0</v>
       </c>
@@ -2909,7 +3036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="31" t="s">
         <v>2</v>
       </c>
@@ -2923,7 +3050,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="31" t="s">
         <v>5</v>
       </c>
@@ -2937,7 +3064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="31" t="s">
         <v>121</v>
       </c>
@@ -2945,16 +3072,16 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="52" t="s">
+    <row r="23" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-    </row>
-    <row r="25" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+    </row>
+    <row r="25" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="31" t="s">
         <v>37</v>
       </c>
@@ -2968,7 +3095,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="31" t="s">
         <v>37</v>
       </c>
@@ -2982,7 +3109,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23">
         <v>1</v>
       </c>
@@ -2996,25 +3123,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="29" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="10" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B33" s="51" t="s">
+    <row r="32" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
       <c r="F33" s="25" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="23" t="s">
         <v>127</v>
       </c>
@@ -3028,7 +3155,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="23" t="s">
         <v>2</v>
       </c>
@@ -3039,7 +3166,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="23" t="s">
         <v>5</v>
       </c>
@@ -3050,7 +3177,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="23" t="s">
         <v>121</v>
       </c>
@@ -3061,15 +3188,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="40" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="41" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="52" t="s">
+    <row r="39" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="C41" s="52"/>
-    </row>
-    <row r="42" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C41" s="51"/>
+    </row>
+    <row r="42" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="31" t="s">
         <v>0</v>
       </c>
@@ -3077,7 +3204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="31" t="s">
         <v>2</v>
       </c>
@@ -3085,7 +3212,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="31" t="s">
         <v>5</v>
       </c>
@@ -3093,20 +3220,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="46" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="47" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="52" t="s">
+    <row r="45" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
-    </row>
-    <row r="48" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+    </row>
+    <row r="48" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="31" t="s">
         <v>37</v>
       </c>
@@ -3129,7 +3256,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B49" s="31" t="s">
         <v>37</v>
       </c>
@@ -3152,7 +3279,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="50" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B50" s="23">
         <v>1</v>
       </c>
@@ -3173,28 +3300,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="55" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B57" s="51" t="s">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="31" t="s">
         <v>0</v>
       </c>
@@ -3208,7 +3335,7 @@
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="31" t="s">
         <v>2</v>
       </c>
@@ -3222,7 +3349,7 @@
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="31" t="s">
         <v>5</v>
       </c>
@@ -3236,7 +3363,7 @@
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="31" t="s">
         <v>121</v>
       </c>
@@ -3250,18 +3377,18 @@
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="52" t="s">
+    <row r="63" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="C63" s="52"/>
-    </row>
-    <row r="64" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C63" s="51"/>
+    </row>
+    <row r="64" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B64" s="31" t="s">
         <v>0</v>
       </c>
@@ -3269,7 +3396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="31" t="s">
         <v>2</v>
       </c>
@@ -3277,7 +3404,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="66" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" s="31" t="s">
         <v>5</v>
       </c>
@@ -3285,19 +3412,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="68" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="52" t="s">
+    <row r="67" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="C68" s="52"/>
-      <c r="D68" s="52"/>
-      <c r="E68" s="52"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
-      <c r="H68" s="52"/>
-    </row>
-    <row r="69" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C68" s="51"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="51"/>
+      <c r="H68" s="51"/>
+    </row>
+    <row r="69" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B69" s="31" t="s">
         <v>37</v>
       </c>
@@ -3320,7 +3447,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="70" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="31" t="s">
         <v>37</v>
       </c>
@@ -3343,7 +3470,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="71" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="23">
         <v>1</v>
       </c>
@@ -3366,29 +3493,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B74" s="51" t="s">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B74" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="C74" s="51"/>
-      <c r="D74" s="51"/>
-      <c r="F74" s="51" t="s">
+      <c r="C74" s="52"/>
+      <c r="D74" s="52"/>
+      <c r="F74" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="G74" s="51"/>
-      <c r="H74" s="51"/>
-    </row>
-    <row r="75" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="G74" s="52"/>
+      <c r="H74" s="52"/>
+    </row>
+    <row r="75" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B75" s="31" t="s">
         <v>143</v>
       </c>
@@ -3408,7 +3535,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B76" s="33" t="s">
         <v>112</v>
       </c>
@@ -3424,7 +3551,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="77" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B77" s="33" t="s">
         <v>113</v>
       </c>
@@ -3440,7 +3567,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="78" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B78" s="33" t="s">
         <v>147</v>
       </c>
@@ -3456,7 +3583,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="79" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B79" s="33" t="s">
         <v>149</v>
       </c>
@@ -3472,7 +3599,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="80" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B80" s="33" t="s">
         <v>151</v>
       </c>
@@ -3488,7 +3615,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B81" s="31" t="s">
         <v>153</v>
       </c>
@@ -3504,7 +3631,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="82" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B82" s="31" t="s">
         <v>154</v>
       </c>
@@ -3520,7 +3647,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="83" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B83" s="31" t="s">
         <v>155</v>
       </c>
@@ -3536,7 +3663,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B84" s="31" t="s">
         <v>156</v>
       </c>
@@ -3552,7 +3679,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="85" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B85" s="31" t="s">
         <v>157</v>
       </c>
@@ -3568,21 +3695,21 @@
         <v>152</v>
       </c>
     </row>
-    <row r="86" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B86" s="28"/>
       <c r="F86" s="28"/>
     </row>
-    <row r="87" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="52" t="s">
+    <row r="87" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="C87" s="52"/>
-      <c r="F87" s="52" t="s">
+      <c r="C87" s="51"/>
+      <c r="F87" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="G87" s="52"/>
-    </row>
-    <row r="88" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="G87" s="51"/>
+    </row>
+    <row r="88" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B88" s="31" t="s">
         <v>0</v>
       </c>
@@ -3596,7 +3723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B89" s="31" t="s">
         <v>2</v>
       </c>
@@ -3610,7 +3737,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="90" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B90" s="31" t="s">
         <v>5</v>
       </c>
@@ -3624,7 +3751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B91" s="31" t="s">
         <v>121</v>
       </c>
@@ -3638,21 +3765,21 @@
         <v>225</v>
       </c>
     </row>
-    <row r="92" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B92" s="28"/>
       <c r="F92" s="28"/>
     </row>
-    <row r="93" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B93" s="52" t="s">
+    <row r="93" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="C93" s="52"/>
-      <c r="F93" s="52" t="s">
+      <c r="C93" s="51"/>
+      <c r="F93" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="G93" s="52"/>
-    </row>
-    <row r="94" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="G93" s="51"/>
+    </row>
+    <row r="94" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B94" s="31" t="s">
         <v>37</v>
       </c>
@@ -3669,7 +3796,7 @@
       </c>
       <c r="H94" s="27"/>
     </row>
-    <row r="95" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B95" s="31" t="s">
         <v>37</v>
       </c>
@@ -3686,7 +3813,7 @@
       </c>
       <c r="H95" s="27"/>
     </row>
-    <row r="96" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B96" s="23">
         <v>1</v>
       </c>
@@ -3700,34 +3827,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B97" s="28"/>
       <c r="F97" s="6"/>
       <c r="G97" s="26"/>
       <c r="H97" s="26"/>
     </row>
-    <row r="98" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B98" s="28"/>
       <c r="F98" s="6"/>
       <c r="G98" s="26"/>
       <c r="H98" s="26"/>
     </row>
-    <row r="99" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B99" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="100" spans="2:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B101" s="51" t="s">
+    <row r="100" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B101" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="C101" s="51"/>
+      <c r="C101" s="52"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B102" s="38" t="s">
         <v>135</v>
       </c>
@@ -3738,7 +3865,7 @@
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B103" s="33" t="s">
         <v>137</v>
       </c>
@@ -3749,7 +3876,7 @@
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B104" s="33" t="s">
         <v>138</v>
       </c>
@@ -3760,7 +3887,7 @@
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B105" s="33" t="s">
         <v>139</v>
       </c>
@@ -3771,7 +3898,7 @@
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B106" s="33" t="s">
         <v>140</v>
       </c>
@@ -3782,7 +3909,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B107" s="33" t="s">
         <v>141</v>
       </c>
@@ -3793,18 +3920,18 @@
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
     </row>
-    <row r="109" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B109" s="52" t="s">
+    <row r="109" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="C109" s="52"/>
-    </row>
-    <row r="110" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C109" s="51"/>
+    </row>
+    <row r="110" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B110" s="31" t="s">
         <v>0</v>
       </c>
@@ -3812,7 +3939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B111" s="31" t="s">
         <v>2</v>
       </c>
@@ -3820,7 +3947,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="112" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B112" s="31" t="s">
         <v>5</v>
       </c>
@@ -3828,19 +3955,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="114" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B115" s="52" t="s">
+    <row r="113" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B115" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="C115" s="52"/>
-      <c r="D115" s="52"/>
-      <c r="E115" s="52"/>
-      <c r="F115" s="52"/>
-      <c r="G115" s="52"/>
-    </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C115" s="51"/>
+      <c r="D115" s="51"/>
+      <c r="E115" s="51"/>
+      <c r="F115" s="51"/>
+      <c r="G115" s="51"/>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B116" s="31" t="s">
         <v>37</v>
       </c>
@@ -3860,7 +3987,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B117" s="31" t="s">
         <v>37</v>
       </c>
@@ -3880,7 +4007,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B118" s="23">
         <v>1</v>
       </c>
@@ -3900,34 +4027,34 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
     </row>
-    <row r="120" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="121" spans="2:12" s="5" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="120" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="2:12" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B121" s="29" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="122" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="123" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B123" s="51" t="s">
+    <row r="122" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="C123" s="51"/>
-      <c r="D123" s="51"/>
-      <c r="E123" s="51"/>
-      <c r="F123" s="51"/>
-      <c r="G123" s="51"/>
-      <c r="H123" s="51"/>
-      <c r="I123" s="51"/>
-      <c r="J123" s="51"/>
-      <c r="K123" s="51"/>
-      <c r="L123" s="51"/>
-    </row>
-    <row r="124" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C123" s="52"/>
+      <c r="D123" s="52"/>
+      <c r="E123" s="52"/>
+      <c r="F123" s="52"/>
+      <c r="G123" s="52"/>
+      <c r="H123" s="52"/>
+      <c r="I123" s="52"/>
+      <c r="J123" s="52"/>
+      <c r="K123" s="52"/>
+      <c r="L123" s="52"/>
+    </row>
+    <row r="124" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B124" s="31" t="s">
         <v>143</v>
       </c>
@@ -3962,7 +4089,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="125" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B125" s="23" t="s">
         <v>159</v>
       </c>
@@ -3997,14 +4124,14 @@
         <v>152</v>
       </c>
     </row>
-    <row r="127" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="128" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B128" s="52" t="s">
+    <row r="127" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="C128" s="52"/>
-    </row>
-    <row r="129" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C128" s="51"/>
+    </row>
+    <row r="129" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B129" s="31" t="s">
         <v>0</v>
       </c>
@@ -4012,7 +4139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B130" s="31" t="s">
         <v>2</v>
       </c>
@@ -4020,7 +4147,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="131" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B131" s="31" t="s">
         <v>5</v>
       </c>
@@ -4028,19 +4155,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="133" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="134" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B134" s="52" t="s">
+    <row r="132" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="C134" s="52"/>
-      <c r="D134" s="52"/>
-      <c r="E134" s="52"/>
-      <c r="F134" s="52"/>
-      <c r="G134" s="52"/>
-    </row>
-    <row r="135" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C134" s="51"/>
+      <c r="D134" s="51"/>
+      <c r="E134" s="51"/>
+      <c r="F134" s="51"/>
+      <c r="G134" s="51"/>
+    </row>
+    <row r="135" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B135" s="31" t="s">
         <v>37</v>
       </c>
@@ -4060,7 +4187,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="136" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B136" s="31" t="s">
         <v>37</v>
       </c>
@@ -4080,7 +4207,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="137" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B137" s="23">
         <v>1</v>
       </c>
@@ -4098,20 +4225,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="139" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="140" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="141" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="142" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B144" s="51" t="s">
+    <row r="138" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B144" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="C144" s="51"/>
-      <c r="D144" s="51"/>
-      <c r="E144" s="51"/>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C144" s="52"/>
+      <c r="D144" s="52"/>
+      <c r="E144" s="52"/>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B145" s="31" t="s">
         <v>0</v>
       </c>
@@ -4125,7 +4252,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B146" s="31" t="s">
         <v>2</v>
       </c>
@@ -4139,7 +4266,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B147" s="31" t="s">
         <v>5</v>
       </c>
@@ -4153,7 +4280,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B148" s="31" t="s">
         <v>121</v>
       </c>
@@ -4167,21 +4294,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="149" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B149" s="6"/>
       <c r="C149" s="26"/>
       <c r="D149" s="26"/>
       <c r="E149" s="26"/>
     </row>
-    <row r="150" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B150" s="52" t="s">
+    <row r="150" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="C150" s="52"/>
+      <c r="C150" s="51"/>
       <c r="D150" s="26"/>
       <c r="E150" s="26"/>
     </row>
-    <row r="151" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B151" s="31" t="s">
         <v>0</v>
       </c>
@@ -4191,7 +4318,7 @@
       <c r="D151" s="26"/>
       <c r="E151" s="26"/>
     </row>
-    <row r="152" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B152" s="31" t="s">
         <v>2</v>
       </c>
@@ -4201,7 +4328,7 @@
       <c r="D152" s="26"/>
       <c r="E152" s="26"/>
     </row>
-    <row r="153" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B153" s="31" t="s">
         <v>5</v>
       </c>
@@ -4211,21 +4338,21 @@
       <c r="D153" s="26"/>
       <c r="E153" s="26"/>
     </row>
-    <row r="154" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B154" s="6"/>
       <c r="C154" s="26"/>
       <c r="D154" s="26"/>
       <c r="E154" s="26"/>
     </row>
-    <row r="155" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B155" s="52" t="s">
+    <row r="155" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="C155" s="52"/>
-      <c r="D155" s="52"/>
-      <c r="E155" s="52"/>
-    </row>
-    <row r="156" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C155" s="51"/>
+      <c r="D155" s="51"/>
+      <c r="E155" s="51"/>
+    </row>
+    <row r="156" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B156" s="31" t="s">
         <v>37</v>
       </c>
@@ -4239,7 +4366,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="157" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B157" s="31" t="s">
         <v>37</v>
       </c>
@@ -4253,7 +4380,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="158" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B158" s="23">
         <v>1</v>
       </c>
@@ -4267,27 +4394,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B159" s="6"/>
       <c r="C159" s="26"/>
       <c r="D159" s="26"/>
       <c r="E159" s="26"/>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B161" s="51" t="s">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B161" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="C161" s="51"/>
-      <c r="D161" s="51"/>
-      <c r="E161" s="51"/>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C161" s="52"/>
+      <c r="D161" s="52"/>
+      <c r="E161" s="52"/>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B162" s="31" t="s">
         <v>0</v>
       </c>
@@ -4301,7 +4428,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B163" s="33" t="s">
         <v>112</v>
       </c>
@@ -4315,7 +4442,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B164" s="31" t="s">
         <v>5</v>
       </c>
@@ -4329,7 +4456,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B165" s="33" t="s">
         <v>147</v>
       </c>
@@ -4343,15 +4470,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B168" s="52" t="s">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B168" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="C168" s="52"/>
+      <c r="C168" s="51"/>
       <c r="D168" s="26"/>
       <c r="E168" s="26"/>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B169" s="31" t="s">
         <v>0</v>
       </c>
@@ -4361,7 +4488,7 @@
       <c r="D169" s="26"/>
       <c r="E169" s="26"/>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B170" s="31" t="s">
         <v>2</v>
       </c>
@@ -4371,7 +4498,7 @@
       <c r="D170" s="26"/>
       <c r="E170" s="26"/>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B171" s="31" t="s">
         <v>5</v>
       </c>
@@ -4381,21 +4508,21 @@
       <c r="D171" s="26"/>
       <c r="E171" s="26"/>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B172" s="6"/>
       <c r="C172" s="26"/>
       <c r="D172" s="26"/>
       <c r="E172" s="26"/>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B173" s="52" t="s">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B173" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="C173" s="52"/>
-      <c r="D173" s="52"/>
-      <c r="E173" s="52"/>
-    </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C173" s="51"/>
+      <c r="D173" s="51"/>
+      <c r="E173" s="51"/>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B174" s="36" t="s">
         <v>37</v>
       </c>
@@ -4409,7 +4536,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B175" s="36" t="s">
         <v>37</v>
       </c>
@@ -4423,7 +4550,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B176" s="34">
         <v>1</v>
       </c>
@@ -4439,6 +4566,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="F74:H74"/>
     <mergeCell ref="B168:C168"/>
     <mergeCell ref="B173:E173"/>
     <mergeCell ref="B87:C87"/>
@@ -4455,20 +4596,6 @@
     <mergeCell ref="B155:E155"/>
     <mergeCell ref="F87:G87"/>
     <mergeCell ref="F93:G93"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="F74:H74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
